--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB71D3-D4EC-4205-A384-46CCC2F7AF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B71886-766F-4CA3-A4F9-9C3D4E7842F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5361" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="1463">
   <si>
     <t>#ID</t>
   </si>
@@ -4263,9 +4263,6 @@
   </si>
   <si>
     <t>(2,871107,0)</t>
-  </si>
-  <si>
-    <t>(2,871487,0)</t>
   </si>
   <si>
     <t>(9,800035,0)</t>
@@ -4795,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H778"/>
+  <dimension ref="A1:H777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="L764" sqref="L764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4850,7 +4847,7 @@
         <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4873,7 +4870,7 @@
         <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4896,7 +4893,7 @@
         <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4919,7 +4916,7 @@
         <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4942,7 +4939,7 @@
         <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4965,7 +4962,7 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4988,7 +4985,7 @@
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5011,7 +5008,7 @@
         <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5034,7 +5031,7 @@
         <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5057,7 +5054,7 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5080,7 +5077,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5103,7 +5100,7 @@
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5241,7 +5238,7 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5264,7 +5261,7 @@
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5287,7 +5284,7 @@
         <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5310,7 +5307,7 @@
         <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5333,7 +5330,7 @@
         <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5356,7 +5353,7 @@
         <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5379,7 +5376,7 @@
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5402,7 +5399,7 @@
         <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5425,7 +5422,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5448,7 +5445,7 @@
         <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5471,7 +5468,7 @@
         <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5494,7 +5491,7 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5517,7 +5514,7 @@
         <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5540,7 +5537,7 @@
         <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5563,7 +5560,7 @@
         <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5586,7 +5583,7 @@
         <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5609,7 +5606,7 @@
         <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5632,7 +5629,7 @@
         <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -8951,7 +8948,7 @@
         <v>868</v>
       </c>
       <c r="C164" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -8977,7 +8974,7 @@
         <v>868</v>
       </c>
       <c r="C165" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -9003,7 +9000,7 @@
         <v>868</v>
       </c>
       <c r="C166" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -9029,7 +9026,7 @@
         <v>868</v>
       </c>
       <c r="C167" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -9055,7 +9052,7 @@
         <v>868</v>
       </c>
       <c r="C168" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -9081,7 +9078,7 @@
         <v>868</v>
       </c>
       <c r="C169" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -9107,7 +9104,7 @@
         <v>868</v>
       </c>
       <c r="C170" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -9133,7 +9130,7 @@
         <v>868</v>
       </c>
       <c r="C171" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -9159,7 +9156,7 @@
         <v>868</v>
       </c>
       <c r="C172" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -9185,7 +9182,7 @@
         <v>868</v>
       </c>
       <c r="C173" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -9211,7 +9208,7 @@
         <v>868</v>
       </c>
       <c r="C174" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -9237,7 +9234,7 @@
         <v>868</v>
       </c>
       <c r="C175" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -9263,7 +9260,7 @@
         <v>868</v>
       </c>
       <c r="C176" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9289,7 +9286,7 @@
         <v>868</v>
       </c>
       <c r="C177" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9315,7 +9312,7 @@
         <v>868</v>
       </c>
       <c r="C178" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -9341,7 +9338,7 @@
         <v>868</v>
       </c>
       <c r="C179" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9367,7 +9364,7 @@
         <v>868</v>
       </c>
       <c r="C180" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9393,7 +9390,7 @@
         <v>868</v>
       </c>
       <c r="C181" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -9419,7 +9416,7 @@
         <v>868</v>
       </c>
       <c r="C182" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -9445,7 +9442,7 @@
         <v>868</v>
       </c>
       <c r="C183" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -9471,7 +9468,7 @@
         <v>868</v>
       </c>
       <c r="C184" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -9497,7 +9494,7 @@
         <v>868</v>
       </c>
       <c r="C185" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -9523,7 +9520,7 @@
         <v>868</v>
       </c>
       <c r="C186" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -9549,7 +9546,7 @@
         <v>868</v>
       </c>
       <c r="C187" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -9575,7 +9572,7 @@
         <v>868</v>
       </c>
       <c r="C188" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -9601,7 +9598,7 @@
         <v>868</v>
       </c>
       <c r="C189" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -9627,7 +9624,7 @@
         <v>868</v>
       </c>
       <c r="C190" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -9653,7 +9650,7 @@
         <v>868</v>
       </c>
       <c r="C191" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -9679,7 +9676,7 @@
         <v>295</v>
       </c>
       <c r="C192" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -9705,7 +9702,7 @@
         <v>296</v>
       </c>
       <c r="C193" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -9717,7 +9714,7 @@
         <v>151</v>
       </c>
       <c r="G193" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -9731,7 +9728,7 @@
         <v>153</v>
       </c>
       <c r="C194" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -9757,7 +9754,7 @@
         <v>156</v>
       </c>
       <c r="C195" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -9769,7 +9766,7 @@
         <v>157</v>
       </c>
       <c r="G195" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -9783,7 +9780,7 @@
         <v>159</v>
       </c>
       <c r="C196" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9809,7 +9806,7 @@
         <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -9821,7 +9818,7 @@
         <v>163</v>
       </c>
       <c r="G197" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -9835,7 +9832,7 @@
         <v>165</v>
       </c>
       <c r="C198" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -9847,7 +9844,7 @@
         <v>166</v>
       </c>
       <c r="G198" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -9861,7 +9858,7 @@
         <v>168</v>
       </c>
       <c r="C199" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -9887,7 +9884,7 @@
         <v>171</v>
       </c>
       <c r="C200" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9899,7 +9896,7 @@
         <v>172</v>
       </c>
       <c r="G200" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -9913,7 +9910,7 @@
         <v>174</v>
       </c>
       <c r="C201" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9925,7 +9922,7 @@
         <v>175</v>
       </c>
       <c r="G201" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -9939,7 +9936,7 @@
         <v>177</v>
       </c>
       <c r="C202" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -9965,7 +9962,7 @@
         <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -9977,7 +9974,7 @@
         <v>181</v>
       </c>
       <c r="G203" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -9991,7 +9988,7 @@
         <v>183</v>
       </c>
       <c r="C204" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -10003,7 +10000,7 @@
         <v>184</v>
       </c>
       <c r="G204" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -10017,7 +10014,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -10043,7 +10040,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -10055,7 +10052,7 @@
         <v>205</v>
       </c>
       <c r="G206" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -10069,7 +10066,7 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -10078,10 +10075,10 @@
         <v>110</v>
       </c>
       <c r="F207" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G207" t="s">
         <v>1458</v>
-      </c>
-      <c r="G207" t="s">
-        <v>1459</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -10095,7 +10092,7 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -10104,10 +10101,10 @@
         <v>110</v>
       </c>
       <c r="F208" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G208" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -10121,7 +10118,7 @@
         <v>216</v>
       </c>
       <c r="C209" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -10130,10 +10127,10 @@
         <v>110</v>
       </c>
       <c r="F209" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G209" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -10147,7 +10144,7 @@
         <v>889</v>
       </c>
       <c r="C210" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -10173,7 +10170,7 @@
         <v>889</v>
       </c>
       <c r="C211" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -10199,7 +10196,7 @@
         <v>889</v>
       </c>
       <c r="C212" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -10225,7 +10222,7 @@
         <v>889</v>
       </c>
       <c r="C213" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -10251,7 +10248,7 @@
         <v>889</v>
       </c>
       <c r="C214" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -10277,7 +10274,7 @@
         <v>889</v>
       </c>
       <c r="C215" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -10303,7 +10300,7 @@
         <v>889</v>
       </c>
       <c r="C216" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -10329,7 +10326,7 @@
         <v>889</v>
       </c>
       <c r="C217" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -10355,7 +10352,7 @@
         <v>889</v>
       </c>
       <c r="C218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -10381,7 +10378,7 @@
         <v>889</v>
       </c>
       <c r="C219" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -10407,7 +10404,7 @@
         <v>889</v>
       </c>
       <c r="C220" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -10433,7 +10430,7 @@
         <v>889</v>
       </c>
       <c r="C221" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -10459,7 +10456,7 @@
         <v>889</v>
       </c>
       <c r="C222" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -10485,7 +10482,7 @@
         <v>889</v>
       </c>
       <c r="C223" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -10511,7 +10508,7 @@
         <v>889</v>
       </c>
       <c r="C224" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10537,7 +10534,7 @@
         <v>889</v>
       </c>
       <c r="C225" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10563,7 +10560,7 @@
         <v>889</v>
       </c>
       <c r="C226" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -10589,7 +10586,7 @@
         <v>889</v>
       </c>
       <c r="C227" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -10615,7 +10612,7 @@
         <v>889</v>
       </c>
       <c r="C228" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -10641,7 +10638,7 @@
         <v>889</v>
       </c>
       <c r="C229" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -10667,7 +10664,7 @@
         <v>889</v>
       </c>
       <c r="C230" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10693,7 +10690,7 @@
         <v>889</v>
       </c>
       <c r="C231" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10719,7 +10716,7 @@
         <v>889</v>
       </c>
       <c r="C232" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10745,7 +10742,7 @@
         <v>889</v>
       </c>
       <c r="C233" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10771,7 +10768,7 @@
         <v>889</v>
       </c>
       <c r="C234" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10797,7 +10794,7 @@
         <v>889</v>
       </c>
       <c r="C235" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10823,7 +10820,7 @@
         <v>889</v>
       </c>
       <c r="C236" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10849,7 +10846,7 @@
         <v>889</v>
       </c>
       <c r="C237" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10875,7 +10872,7 @@
         <v>889</v>
       </c>
       <c r="C238" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10901,7 +10898,7 @@
         <v>889</v>
       </c>
       <c r="C239" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10927,7 +10924,7 @@
         <v>889</v>
       </c>
       <c r="C240" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -10953,7 +10950,7 @@
         <v>889</v>
       </c>
       <c r="C241" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -10979,7 +10976,7 @@
         <v>889</v>
       </c>
       <c r="C242" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -11005,7 +11002,7 @@
         <v>889</v>
       </c>
       <c r="C243" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -11031,7 +11028,7 @@
         <v>889</v>
       </c>
       <c r="C244" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -11057,7 +11054,7 @@
         <v>889</v>
       </c>
       <c r="C245" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -11083,7 +11080,7 @@
         <v>889</v>
       </c>
       <c r="C246" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -11109,7 +11106,7 @@
         <v>889</v>
       </c>
       <c r="C247" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -11135,7 +11132,7 @@
         <v>889</v>
       </c>
       <c r="C248" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -11161,7 +11158,7 @@
         <v>889</v>
       </c>
       <c r="C249" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11187,7 +11184,7 @@
         <v>889</v>
       </c>
       <c r="C250" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11213,7 +11210,7 @@
         <v>889</v>
       </c>
       <c r="C251" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11239,7 +11236,7 @@
         <v>889</v>
       </c>
       <c r="C252" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -11265,7 +11262,7 @@
         <v>889</v>
       </c>
       <c r="C253" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -11291,7 +11288,7 @@
         <v>889</v>
       </c>
       <c r="C254" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -11317,7 +11314,7 @@
         <v>889</v>
       </c>
       <c r="C255" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -11343,7 +11340,7 @@
         <v>889</v>
       </c>
       <c r="C256" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11369,7 +11366,7 @@
         <v>889</v>
       </c>
       <c r="C257" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -11395,7 +11392,7 @@
         <v>889</v>
       </c>
       <c r="C258" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -11421,7 +11418,7 @@
         <v>889</v>
       </c>
       <c r="C259" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -11447,7 +11444,7 @@
         <v>889</v>
       </c>
       <c r="C260" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11473,7 +11470,7 @@
         <v>889</v>
       </c>
       <c r="C261" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11499,7 +11496,7 @@
         <v>889</v>
       </c>
       <c r="C262" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -11525,7 +11522,7 @@
         <v>889</v>
       </c>
       <c r="C263" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11551,7 +11548,7 @@
         <v>889</v>
       </c>
       <c r="C264" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11577,7 +11574,7 @@
         <v>889</v>
       </c>
       <c r="C265" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11603,7 +11600,7 @@
         <v>889</v>
       </c>
       <c r="C266" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11629,7 +11626,7 @@
         <v>889</v>
       </c>
       <c r="C267" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -11655,7 +11652,7 @@
         <v>889</v>
       </c>
       <c r="C268" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -11681,7 +11678,7 @@
         <v>889</v>
       </c>
       <c r="C269" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -11707,7 +11704,7 @@
         <v>889</v>
       </c>
       <c r="C270" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11733,7 +11730,7 @@
         <v>889</v>
       </c>
       <c r="C271" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -11759,7 +11756,7 @@
         <v>889</v>
       </c>
       <c r="C272" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -11785,7 +11782,7 @@
         <v>889</v>
       </c>
       <c r="C273" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11811,7 +11808,7 @@
         <v>889</v>
       </c>
       <c r="C274" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -11837,7 +11834,7 @@
         <v>889</v>
       </c>
       <c r="C275" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -11863,7 +11860,7 @@
         <v>889</v>
       </c>
       <c r="C276" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -11889,7 +11886,7 @@
         <v>889</v>
       </c>
       <c r="C277" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -11915,7 +11912,7 @@
         <v>889</v>
       </c>
       <c r="C278" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -11941,7 +11938,7 @@
         <v>889</v>
       </c>
       <c r="C279" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -11967,7 +11964,7 @@
         <v>889</v>
       </c>
       <c r="C280" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -11993,7 +11990,7 @@
         <v>889</v>
       </c>
       <c r="C281" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -12019,7 +12016,7 @@
         <v>889</v>
       </c>
       <c r="C282" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -12045,7 +12042,7 @@
         <v>889</v>
       </c>
       <c r="C283" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -12071,7 +12068,7 @@
         <v>889</v>
       </c>
       <c r="C284" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -12097,7 +12094,7 @@
         <v>889</v>
       </c>
       <c r="C285" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -12123,7 +12120,7 @@
         <v>889</v>
       </c>
       <c r="C286" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -12149,7 +12146,7 @@
         <v>889</v>
       </c>
       <c r="C287" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -12175,7 +12172,7 @@
         <v>889</v>
       </c>
       <c r="C288" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -12201,7 +12198,7 @@
         <v>889</v>
       </c>
       <c r="C289" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -12227,7 +12224,7 @@
         <v>889</v>
       </c>
       <c r="C290" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12253,7 +12250,7 @@
         <v>889</v>
       </c>
       <c r="C291" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12279,7 +12276,7 @@
         <v>889</v>
       </c>
       <c r="C292" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -12305,7 +12302,7 @@
         <v>889</v>
       </c>
       <c r="C293" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -12331,7 +12328,7 @@
         <v>889</v>
       </c>
       <c r="C294" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -12357,7 +12354,7 @@
         <v>889</v>
       </c>
       <c r="C295" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -12383,7 +12380,7 @@
         <v>889</v>
       </c>
       <c r="C296" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -12409,7 +12406,7 @@
         <v>889</v>
       </c>
       <c r="C297" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12435,7 +12432,7 @@
         <v>889</v>
       </c>
       <c r="C298" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -12461,7 +12458,7 @@
         <v>889</v>
       </c>
       <c r="C299" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -12487,7 +12484,7 @@
         <v>889</v>
       </c>
       <c r="C300" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -12513,7 +12510,7 @@
         <v>889</v>
       </c>
       <c r="C301" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -12539,7 +12536,7 @@
         <v>889</v>
       </c>
       <c r="C302" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -12565,7 +12562,7 @@
         <v>889</v>
       </c>
       <c r="C303" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -12591,7 +12588,7 @@
         <v>889</v>
       </c>
       <c r="C304" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -12617,7 +12614,7 @@
         <v>889</v>
       </c>
       <c r="C305" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -12643,7 +12640,7 @@
         <v>889</v>
       </c>
       <c r="C306" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -12669,7 +12666,7 @@
         <v>889</v>
       </c>
       <c r="C307" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -12695,7 +12692,7 @@
         <v>889</v>
       </c>
       <c r="C308" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -12721,7 +12718,7 @@
         <v>889</v>
       </c>
       <c r="C309" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -12747,7 +12744,7 @@
         <v>889</v>
       </c>
       <c r="C310" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -12773,7 +12770,7 @@
         <v>889</v>
       </c>
       <c r="C311" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -12799,7 +12796,7 @@
         <v>889</v>
       </c>
       <c r="C312" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -12825,7 +12822,7 @@
         <v>889</v>
       </c>
       <c r="C313" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -12851,7 +12848,7 @@
         <v>889</v>
       </c>
       <c r="C314" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -12877,7 +12874,7 @@
         <v>889</v>
       </c>
       <c r="C315" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -12903,7 +12900,7 @@
         <v>889</v>
       </c>
       <c r="C316" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -12929,7 +12926,7 @@
         <v>889</v>
       </c>
       <c r="C317" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -12955,7 +12952,7 @@
         <v>889</v>
       </c>
       <c r="C318" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -12981,7 +12978,7 @@
         <v>889</v>
       </c>
       <c r="C319" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -13007,7 +13004,7 @@
         <v>889</v>
       </c>
       <c r="C320" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -13033,7 +13030,7 @@
         <v>889</v>
       </c>
       <c r="C321" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -13059,7 +13056,7 @@
         <v>889</v>
       </c>
       <c r="C322" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -13085,7 +13082,7 @@
         <v>889</v>
       </c>
       <c r="C323" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -13111,7 +13108,7 @@
         <v>889</v>
       </c>
       <c r="C324" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -13137,7 +13134,7 @@
         <v>889</v>
       </c>
       <c r="C325" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -13163,7 +13160,7 @@
         <v>889</v>
       </c>
       <c r="C326" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -13189,7 +13186,7 @@
         <v>889</v>
       </c>
       <c r="C327" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -13215,7 +13212,7 @@
         <v>889</v>
       </c>
       <c r="C328" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -13241,7 +13238,7 @@
         <v>889</v>
       </c>
       <c r="C329" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -13267,7 +13264,7 @@
         <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -13293,7 +13290,7 @@
         <v>889</v>
       </c>
       <c r="C331" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -13319,7 +13316,7 @@
         <v>889</v>
       </c>
       <c r="C332" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -13345,7 +13342,7 @@
         <v>889</v>
       </c>
       <c r="C333" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -13371,7 +13368,7 @@
         <v>889</v>
       </c>
       <c r="C334" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -13397,7 +13394,7 @@
         <v>889</v>
       </c>
       <c r="C335" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -13423,7 +13420,7 @@
         <v>889</v>
       </c>
       <c r="C336" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -13449,7 +13446,7 @@
         <v>889</v>
       </c>
       <c r="C337" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -13475,7 +13472,7 @@
         <v>889</v>
       </c>
       <c r="C338" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -13501,7 +13498,7 @@
         <v>889</v>
       </c>
       <c r="C339" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -13527,7 +13524,7 @@
         <v>889</v>
       </c>
       <c r="C340" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -13553,7 +13550,7 @@
         <v>889</v>
       </c>
       <c r="C341" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -13579,7 +13576,7 @@
         <v>889</v>
       </c>
       <c r="C342" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -13605,7 +13602,7 @@
         <v>889</v>
       </c>
       <c r="C343" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -13631,7 +13628,7 @@
         <v>889</v>
       </c>
       <c r="C344" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -13657,7 +13654,7 @@
         <v>889</v>
       </c>
       <c r="C345" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -13683,7 +13680,7 @@
         <v>889</v>
       </c>
       <c r="C346" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -13709,7 +13706,7 @@
         <v>889</v>
       </c>
       <c r="C347" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -13735,7 +13732,7 @@
         <v>889</v>
       </c>
       <c r="C348" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -13761,7 +13758,7 @@
         <v>889</v>
       </c>
       <c r="C349" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -13787,7 +13784,7 @@
         <v>889</v>
       </c>
       <c r="C350" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -13813,7 +13810,7 @@
         <v>889</v>
       </c>
       <c r="C351" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -13839,7 +13836,7 @@
         <v>889</v>
       </c>
       <c r="C352" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -13865,7 +13862,7 @@
         <v>889</v>
       </c>
       <c r="C353" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -13891,7 +13888,7 @@
         <v>889</v>
       </c>
       <c r="C354" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -13917,7 +13914,7 @@
         <v>889</v>
       </c>
       <c r="C355" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -13943,7 +13940,7 @@
         <v>889</v>
       </c>
       <c r="C356" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -13969,7 +13966,7 @@
         <v>889</v>
       </c>
       <c r="C357" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -13995,7 +13992,7 @@
         <v>889</v>
       </c>
       <c r="C358" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -14021,7 +14018,7 @@
         <v>889</v>
       </c>
       <c r="C359" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -14047,7 +14044,7 @@
         <v>889</v>
       </c>
       <c r="C360" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -14073,7 +14070,7 @@
         <v>889</v>
       </c>
       <c r="C361" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -14099,7 +14096,7 @@
         <v>889</v>
       </c>
       <c r="C362" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -14125,7 +14122,7 @@
         <v>889</v>
       </c>
       <c r="C363" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -14151,7 +14148,7 @@
         <v>889</v>
       </c>
       <c r="C364" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -14177,7 +14174,7 @@
         <v>889</v>
       </c>
       <c r="C365" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -14203,7 +14200,7 @@
         <v>889</v>
       </c>
       <c r="C366" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -14229,7 +14226,7 @@
         <v>889</v>
       </c>
       <c r="C367" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -14255,7 +14252,7 @@
         <v>889</v>
       </c>
       <c r="C368" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -14281,7 +14278,7 @@
         <v>889</v>
       </c>
       <c r="C369" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -14307,7 +14304,7 @@
         <v>889</v>
       </c>
       <c r="C370" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -14333,7 +14330,7 @@
         <v>889</v>
       </c>
       <c r="C371" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -14359,7 +14356,7 @@
         <v>889</v>
       </c>
       <c r="C372" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -14385,7 +14382,7 @@
         <v>889</v>
       </c>
       <c r="C373" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -14411,7 +14408,7 @@
         <v>889</v>
       </c>
       <c r="C374" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -14437,7 +14434,7 @@
         <v>889</v>
       </c>
       <c r="C375" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -14463,7 +14460,7 @@
         <v>889</v>
       </c>
       <c r="C376" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -14489,7 +14486,7 @@
         <v>889</v>
       </c>
       <c r="C377" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -14515,7 +14512,7 @@
         <v>889</v>
       </c>
       <c r="C378" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -14541,7 +14538,7 @@
         <v>889</v>
       </c>
       <c r="C379" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -14567,7 +14564,7 @@
         <v>889</v>
       </c>
       <c r="C380" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -14593,7 +14590,7 @@
         <v>889</v>
       </c>
       <c r="C381" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -14619,7 +14616,7 @@
         <v>889</v>
       </c>
       <c r="C382" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -14645,7 +14642,7 @@
         <v>889</v>
       </c>
       <c r="C383" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -14671,7 +14668,7 @@
         <v>889</v>
       </c>
       <c r="C384" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -14697,7 +14694,7 @@
         <v>889</v>
       </c>
       <c r="C385" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -14723,7 +14720,7 @@
         <v>889</v>
       </c>
       <c r="C386" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -14749,7 +14746,7 @@
         <v>889</v>
       </c>
       <c r="C387" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -14775,7 +14772,7 @@
         <v>889</v>
       </c>
       <c r="C388" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -14801,7 +14798,7 @@
         <v>889</v>
       </c>
       <c r="C389" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -14827,7 +14824,7 @@
         <v>889</v>
       </c>
       <c r="C390" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -14853,7 +14850,7 @@
         <v>889</v>
       </c>
       <c r="C391" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -14879,7 +14876,7 @@
         <v>889</v>
       </c>
       <c r="C392" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -14905,7 +14902,7 @@
         <v>889</v>
       </c>
       <c r="C393" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -14931,7 +14928,7 @@
         <v>889</v>
       </c>
       <c r="C394" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -14957,7 +14954,7 @@
         <v>889</v>
       </c>
       <c r="C395" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -14983,7 +14980,7 @@
         <v>889</v>
       </c>
       <c r="C396" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -15009,7 +15006,7 @@
         <v>889</v>
       </c>
       <c r="C397" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -15035,7 +15032,7 @@
         <v>889</v>
       </c>
       <c r="C398" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -15061,7 +15058,7 @@
         <v>889</v>
       </c>
       <c r="C399" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -15087,7 +15084,7 @@
         <v>889</v>
       </c>
       <c r="C400" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -15113,7 +15110,7 @@
         <v>889</v>
       </c>
       <c r="C401" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -15139,7 +15136,7 @@
         <v>889</v>
       </c>
       <c r="C402" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -15165,7 +15162,7 @@
         <v>889</v>
       </c>
       <c r="C403" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -15191,7 +15188,7 @@
         <v>889</v>
       </c>
       <c r="C404" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -15217,7 +15214,7 @@
         <v>889</v>
       </c>
       <c r="C405" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -15243,7 +15240,7 @@
         <v>889</v>
       </c>
       <c r="C406" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -15269,7 +15266,7 @@
         <v>889</v>
       </c>
       <c r="C407" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -15295,7 +15292,7 @@
         <v>889</v>
       </c>
       <c r="C408" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -15321,7 +15318,7 @@
         <v>889</v>
       </c>
       <c r="C409" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -15347,7 +15344,7 @@
         <v>889</v>
       </c>
       <c r="C410" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -15373,7 +15370,7 @@
         <v>889</v>
       </c>
       <c r="C411" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -15399,7 +15396,7 @@
         <v>889</v>
       </c>
       <c r="C412" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -15425,7 +15422,7 @@
         <v>889</v>
       </c>
       <c r="C413" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -15451,7 +15448,7 @@
         <v>889</v>
       </c>
       <c r="C414" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -15477,7 +15474,7 @@
         <v>889</v>
       </c>
       <c r="C415" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -15503,7 +15500,7 @@
         <v>889</v>
       </c>
       <c r="C416" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -15529,7 +15526,7 @@
         <v>889</v>
       </c>
       <c r="C417" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -15555,7 +15552,7 @@
         <v>889</v>
       </c>
       <c r="C418" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -15581,7 +15578,7 @@
         <v>889</v>
       </c>
       <c r="C419" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D419">
         <v>0</v>
@@ -15607,7 +15604,7 @@
         <v>889</v>
       </c>
       <c r="C420" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -15633,7 +15630,7 @@
         <v>889</v>
       </c>
       <c r="C421" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -15659,7 +15656,7 @@
         <v>889</v>
       </c>
       <c r="C422" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -15685,7 +15682,7 @@
         <v>889</v>
       </c>
       <c r="C423" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -15711,7 +15708,7 @@
         <v>889</v>
       </c>
       <c r="C424" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -15737,7 +15734,7 @@
         <v>889</v>
       </c>
       <c r="C425" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -15763,7 +15760,7 @@
         <v>889</v>
       </c>
       <c r="C426" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -15789,7 +15786,7 @@
         <v>889</v>
       </c>
       <c r="C427" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -15815,7 +15812,7 @@
         <v>889</v>
       </c>
       <c r="C428" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -15841,7 +15838,7 @@
         <v>889</v>
       </c>
       <c r="C429" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -15867,7 +15864,7 @@
         <v>889</v>
       </c>
       <c r="C430" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -15893,7 +15890,7 @@
         <v>889</v>
       </c>
       <c r="C431" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -15919,7 +15916,7 @@
         <v>889</v>
       </c>
       <c r="C432" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -15945,7 +15942,7 @@
         <v>889</v>
       </c>
       <c r="C433" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -15971,7 +15968,7 @@
         <v>889</v>
       </c>
       <c r="C434" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -15997,7 +15994,7 @@
         <v>889</v>
       </c>
       <c r="C435" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -16023,7 +16020,7 @@
         <v>889</v>
       </c>
       <c r="C436" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -16049,7 +16046,7 @@
         <v>889</v>
       </c>
       <c r="C437" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -16075,7 +16072,7 @@
         <v>889</v>
       </c>
       <c r="C438" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -16101,7 +16098,7 @@
         <v>889</v>
       </c>
       <c r="C439" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -16127,7 +16124,7 @@
         <v>889</v>
       </c>
       <c r="C440" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -16153,7 +16150,7 @@
         <v>889</v>
       </c>
       <c r="C441" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -16179,7 +16176,7 @@
         <v>889</v>
       </c>
       <c r="C442" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -16205,7 +16202,7 @@
         <v>889</v>
       </c>
       <c r="C443" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -16231,7 +16228,7 @@
         <v>889</v>
       </c>
       <c r="C444" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -16257,7 +16254,7 @@
         <v>889</v>
       </c>
       <c r="C445" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -16283,7 +16280,7 @@
         <v>889</v>
       </c>
       <c r="C446" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -16309,7 +16306,7 @@
         <v>889</v>
       </c>
       <c r="C447" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -16335,7 +16332,7 @@
         <v>889</v>
       </c>
       <c r="C448" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -16361,7 +16358,7 @@
         <v>889</v>
       </c>
       <c r="C449" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -16387,7 +16384,7 @@
         <v>889</v>
       </c>
       <c r="C450" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -16413,7 +16410,7 @@
         <v>889</v>
       </c>
       <c r="C451" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -16439,7 +16436,7 @@
         <v>889</v>
       </c>
       <c r="C452" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -16465,7 +16462,7 @@
         <v>889</v>
       </c>
       <c r="C453" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -16491,7 +16488,7 @@
         <v>889</v>
       </c>
       <c r="C454" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -16517,7 +16514,7 @@
         <v>889</v>
       </c>
       <c r="C455" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -16543,7 +16540,7 @@
         <v>889</v>
       </c>
       <c r="C456" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -16569,7 +16566,7 @@
         <v>889</v>
       </c>
       <c r="C457" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -16595,7 +16592,7 @@
         <v>889</v>
       </c>
       <c r="C458" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -16621,7 +16618,7 @@
         <v>889</v>
       </c>
       <c r="C459" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -16647,7 +16644,7 @@
         <v>889</v>
       </c>
       <c r="C460" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -16673,7 +16670,7 @@
         <v>889</v>
       </c>
       <c r="C461" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -16699,7 +16696,7 @@
         <v>889</v>
       </c>
       <c r="C462" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -16725,7 +16722,7 @@
         <v>889</v>
       </c>
       <c r="C463" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -16751,7 +16748,7 @@
         <v>889</v>
       </c>
       <c r="C464" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -16777,7 +16774,7 @@
         <v>889</v>
       </c>
       <c r="C465" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -16803,7 +16800,7 @@
         <v>889</v>
       </c>
       <c r="C466" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -16829,7 +16826,7 @@
         <v>889</v>
       </c>
       <c r="C467" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -16855,7 +16852,7 @@
         <v>889</v>
       </c>
       <c r="C468" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -16881,7 +16878,7 @@
         <v>889</v>
       </c>
       <c r="C469" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -16907,7 +16904,7 @@
         <v>889</v>
       </c>
       <c r="C470" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -16933,7 +16930,7 @@
         <v>889</v>
       </c>
       <c r="C471" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -16959,7 +16956,7 @@
         <v>889</v>
       </c>
       <c r="C472" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -16985,7 +16982,7 @@
         <v>889</v>
       </c>
       <c r="C473" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -17011,7 +17008,7 @@
         <v>889</v>
       </c>
       <c r="C474" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -17037,7 +17034,7 @@
         <v>889</v>
       </c>
       <c r="C475" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -17063,7 +17060,7 @@
         <v>889</v>
       </c>
       <c r="C476" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -17089,7 +17086,7 @@
         <v>889</v>
       </c>
       <c r="C477" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -17115,7 +17112,7 @@
         <v>889</v>
       </c>
       <c r="C478" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -17141,7 +17138,7 @@
         <v>889</v>
       </c>
       <c r="C479" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -17167,7 +17164,7 @@
         <v>889</v>
       </c>
       <c r="C480" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -17193,7 +17190,7 @@
         <v>889</v>
       </c>
       <c r="C481" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -17219,7 +17216,7 @@
         <v>889</v>
       </c>
       <c r="C482" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -17245,7 +17242,7 @@
         <v>889</v>
       </c>
       <c r="C483" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -17271,7 +17268,7 @@
         <v>889</v>
       </c>
       <c r="C484" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -17297,7 +17294,7 @@
         <v>889</v>
       </c>
       <c r="C485" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -17323,7 +17320,7 @@
         <v>889</v>
       </c>
       <c r="C486" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -17349,7 +17346,7 @@
         <v>889</v>
       </c>
       <c r="C487" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -17375,7 +17372,7 @@
         <v>889</v>
       </c>
       <c r="C488" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -17401,7 +17398,7 @@
         <v>889</v>
       </c>
       <c r="C489" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -17427,7 +17424,7 @@
         <v>889</v>
       </c>
       <c r="C490" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -17453,7 +17450,7 @@
         <v>889</v>
       </c>
       <c r="C491" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -17479,7 +17476,7 @@
         <v>889</v>
       </c>
       <c r="C492" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -17505,7 +17502,7 @@
         <v>889</v>
       </c>
       <c r="C493" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -17531,7 +17528,7 @@
         <v>889</v>
       </c>
       <c r="C494" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -17557,7 +17554,7 @@
         <v>889</v>
       </c>
       <c r="C495" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -17583,7 +17580,7 @@
         <v>889</v>
       </c>
       <c r="C496" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -17609,7 +17606,7 @@
         <v>889</v>
       </c>
       <c r="C497" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -17635,7 +17632,7 @@
         <v>889</v>
       </c>
       <c r="C498" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -17661,7 +17658,7 @@
         <v>889</v>
       </c>
       <c r="C499" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -17687,7 +17684,7 @@
         <v>889</v>
       </c>
       <c r="C500" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -17713,7 +17710,7 @@
         <v>889</v>
       </c>
       <c r="C501" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -17739,7 +17736,7 @@
         <v>889</v>
       </c>
       <c r="C502" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -17765,7 +17762,7 @@
         <v>889</v>
       </c>
       <c r="C503" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -17791,7 +17788,7 @@
         <v>889</v>
       </c>
       <c r="C504" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -17817,7 +17814,7 @@
         <v>889</v>
       </c>
       <c r="C505" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -17843,7 +17840,7 @@
         <v>889</v>
       </c>
       <c r="C506" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -17869,7 +17866,7 @@
         <v>889</v>
       </c>
       <c r="C507" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -17895,7 +17892,7 @@
         <v>889</v>
       </c>
       <c r="C508" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -17921,7 +17918,7 @@
         <v>889</v>
       </c>
       <c r="C509" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -17947,7 +17944,7 @@
         <v>889</v>
       </c>
       <c r="C510" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -17973,7 +17970,7 @@
         <v>889</v>
       </c>
       <c r="C511" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -17999,7 +17996,7 @@
         <v>889</v>
       </c>
       <c r="C512" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -18025,7 +18022,7 @@
         <v>889</v>
       </c>
       <c r="C513" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -18051,7 +18048,7 @@
         <v>889</v>
       </c>
       <c r="C514" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -18077,7 +18074,7 @@
         <v>889</v>
       </c>
       <c r="C515" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -18103,7 +18100,7 @@
         <v>889</v>
       </c>
       <c r="C516" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -18129,7 +18126,7 @@
         <v>889</v>
       </c>
       <c r="C517" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -18155,7 +18152,7 @@
         <v>889</v>
       </c>
       <c r="C518" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -18181,7 +18178,7 @@
         <v>889</v>
       </c>
       <c r="C519" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -18207,7 +18204,7 @@
         <v>889</v>
       </c>
       <c r="C520" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -18233,7 +18230,7 @@
         <v>889</v>
       </c>
       <c r="C521" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -18259,7 +18256,7 @@
         <v>889</v>
       </c>
       <c r="C522" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -18285,7 +18282,7 @@
         <v>889</v>
       </c>
       <c r="C523" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -18311,7 +18308,7 @@
         <v>889</v>
       </c>
       <c r="C524" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -18337,7 +18334,7 @@
         <v>889</v>
       </c>
       <c r="C525" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -18363,7 +18360,7 @@
         <v>889</v>
       </c>
       <c r="C526" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -18389,7 +18386,7 @@
         <v>889</v>
       </c>
       <c r="C527" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -18415,7 +18412,7 @@
         <v>889</v>
       </c>
       <c r="C528" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -18441,7 +18438,7 @@
         <v>889</v>
       </c>
       <c r="C529" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -18467,7 +18464,7 @@
         <v>889</v>
       </c>
       <c r="C530" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D530">
         <v>0</v>
@@ -18493,7 +18490,7 @@
         <v>889</v>
       </c>
       <c r="C531" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -18519,7 +18516,7 @@
         <v>889</v>
       </c>
       <c r="C532" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -18545,7 +18542,7 @@
         <v>889</v>
       </c>
       <c r="C533" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -18571,7 +18568,7 @@
         <v>889</v>
       </c>
       <c r="C534" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D534">
         <v>0</v>
@@ -18597,7 +18594,7 @@
         <v>889</v>
       </c>
       <c r="C535" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -18623,7 +18620,7 @@
         <v>889</v>
       </c>
       <c r="C536" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -18649,7 +18646,7 @@
         <v>889</v>
       </c>
       <c r="C537" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -18675,7 +18672,7 @@
         <v>889</v>
       </c>
       <c r="C538" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -18701,7 +18698,7 @@
         <v>889</v>
       </c>
       <c r="C539" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D539">
         <v>0</v>
@@ -18727,7 +18724,7 @@
         <v>889</v>
       </c>
       <c r="C540" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -18753,7 +18750,7 @@
         <v>889</v>
       </c>
       <c r="C541" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -18779,7 +18776,7 @@
         <v>889</v>
       </c>
       <c r="C542" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D542">
         <v>0</v>
@@ -18805,7 +18802,7 @@
         <v>889</v>
       </c>
       <c r="C543" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D543">
         <v>0</v>
@@ -18831,7 +18828,7 @@
         <v>889</v>
       </c>
       <c r="C544" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D544">
         <v>0</v>
@@ -18857,7 +18854,7 @@
         <v>889</v>
       </c>
       <c r="C545" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -18883,7 +18880,7 @@
         <v>889</v>
       </c>
       <c r="C546" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -18909,7 +18906,7 @@
         <v>889</v>
       </c>
       <c r="C547" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D547">
         <v>0</v>
@@ -18935,7 +18932,7 @@
         <v>889</v>
       </c>
       <c r="C548" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -18961,7 +18958,7 @@
         <v>889</v>
       </c>
       <c r="C549" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D549">
         <v>0</v>
@@ -18987,7 +18984,7 @@
         <v>889</v>
       </c>
       <c r="C550" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -19013,7 +19010,7 @@
         <v>889</v>
       </c>
       <c r="C551" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -19039,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="C552" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -19065,7 +19062,7 @@
         <v>889</v>
       </c>
       <c r="C553" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D553">
         <v>0</v>
@@ -19091,7 +19088,7 @@
         <v>889</v>
       </c>
       <c r="C554" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -19117,7 +19114,7 @@
         <v>889</v>
       </c>
       <c r="C555" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D555">
         <v>0</v>
@@ -19143,7 +19140,7 @@
         <v>889</v>
       </c>
       <c r="C556" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D556">
         <v>0</v>
@@ -19169,7 +19166,7 @@
         <v>889</v>
       </c>
       <c r="C557" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -19195,7 +19192,7 @@
         <v>889</v>
       </c>
       <c r="C558" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -19221,7 +19218,7 @@
         <v>889</v>
       </c>
       <c r="C559" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D559">
         <v>0</v>
@@ -19247,7 +19244,7 @@
         <v>889</v>
       </c>
       <c r="C560" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D560">
         <v>0</v>
@@ -19273,7 +19270,7 @@
         <v>889</v>
       </c>
       <c r="C561" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D561">
         <v>0</v>
@@ -19299,7 +19296,7 @@
         <v>889</v>
       </c>
       <c r="C562" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D562">
         <v>0</v>
@@ -19325,7 +19322,7 @@
         <v>889</v>
       </c>
       <c r="C563" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D563">
         <v>0</v>
@@ -19351,7 +19348,7 @@
         <v>889</v>
       </c>
       <c r="C564" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D564">
         <v>0</v>
@@ -19377,7 +19374,7 @@
         <v>889</v>
       </c>
       <c r="C565" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D565">
         <v>0</v>
@@ -19403,7 +19400,7 @@
         <v>889</v>
       </c>
       <c r="C566" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D566">
         <v>0</v>
@@ -19429,7 +19426,7 @@
         <v>889</v>
       </c>
       <c r="C567" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D567">
         <v>0</v>
@@ -19455,7 +19452,7 @@
         <v>889</v>
       </c>
       <c r="C568" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -19481,7 +19478,7 @@
         <v>889</v>
       </c>
       <c r="C569" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D569">
         <v>0</v>
@@ -19507,7 +19504,7 @@
         <v>889</v>
       </c>
       <c r="C570" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D570">
         <v>0</v>
@@ -19533,7 +19530,7 @@
         <v>889</v>
       </c>
       <c r="C571" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -19559,7 +19556,7 @@
         <v>889</v>
       </c>
       <c r="C572" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D572">
         <v>0</v>
@@ -19585,7 +19582,7 @@
         <v>889</v>
       </c>
       <c r="C573" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D573">
         <v>0</v>
@@ -19611,7 +19608,7 @@
         <v>889</v>
       </c>
       <c r="C574" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -19637,7 +19634,7 @@
         <v>889</v>
       </c>
       <c r="C575" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -19663,7 +19660,7 @@
         <v>889</v>
       </c>
       <c r="C576" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -19689,7 +19686,7 @@
         <v>889</v>
       </c>
       <c r="C577" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -19715,7 +19712,7 @@
         <v>889</v>
       </c>
       <c r="C578" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -19741,7 +19738,7 @@
         <v>889</v>
       </c>
       <c r="C579" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D579">
         <v>0</v>
@@ -19767,7 +19764,7 @@
         <v>889</v>
       </c>
       <c r="C580" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -19793,7 +19790,7 @@
         <v>889</v>
       </c>
       <c r="C581" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -19819,7 +19816,7 @@
         <v>889</v>
       </c>
       <c r="C582" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D582">
         <v>0</v>
@@ -19845,7 +19842,7 @@
         <v>889</v>
       </c>
       <c r="C583" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -19871,7 +19868,7 @@
         <v>889</v>
       </c>
       <c r="C584" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D584">
         <v>0</v>
@@ -19897,7 +19894,7 @@
         <v>889</v>
       </c>
       <c r="C585" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -19923,7 +19920,7 @@
         <v>889</v>
       </c>
       <c r="C586" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -19949,7 +19946,7 @@
         <v>889</v>
       </c>
       <c r="C587" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D587">
         <v>0</v>
@@ -19975,7 +19972,7 @@
         <v>889</v>
       </c>
       <c r="C588" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -20001,7 +19998,7 @@
         <v>889</v>
       </c>
       <c r="C589" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D589">
         <v>0</v>
@@ -20027,7 +20024,7 @@
         <v>889</v>
       </c>
       <c r="C590" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -20053,7 +20050,7 @@
         <v>889</v>
       </c>
       <c r="C591" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -20079,7 +20076,7 @@
         <v>889</v>
       </c>
       <c r="C592" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -20105,7 +20102,7 @@
         <v>889</v>
       </c>
       <c r="C593" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -20131,7 +20128,7 @@
         <v>889</v>
       </c>
       <c r="C594" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -20157,7 +20154,7 @@
         <v>889</v>
       </c>
       <c r="C595" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -20183,7 +20180,7 @@
         <v>889</v>
       </c>
       <c r="C596" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -20209,7 +20206,7 @@
         <v>889</v>
       </c>
       <c r="C597" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D597">
         <v>0</v>
@@ -20235,7 +20232,7 @@
         <v>889</v>
       </c>
       <c r="C598" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -20261,7 +20258,7 @@
         <v>889</v>
       </c>
       <c r="C599" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -20287,7 +20284,7 @@
         <v>889</v>
       </c>
       <c r="C600" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -20313,7 +20310,7 @@
         <v>889</v>
       </c>
       <c r="C601" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -20339,7 +20336,7 @@
         <v>889</v>
       </c>
       <c r="C602" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -20365,7 +20362,7 @@
         <v>889</v>
       </c>
       <c r="C603" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -20391,7 +20388,7 @@
         <v>889</v>
       </c>
       <c r="C604" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D604">
         <v>0</v>
@@ -20417,7 +20414,7 @@
         <v>889</v>
       </c>
       <c r="C605" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -20443,7 +20440,7 @@
         <v>889</v>
       </c>
       <c r="C606" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -20469,7 +20466,7 @@
         <v>889</v>
       </c>
       <c r="C607" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -20495,7 +20492,7 @@
         <v>889</v>
       </c>
       <c r="C608" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -20521,7 +20518,7 @@
         <v>889</v>
       </c>
       <c r="C609" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D609">
         <v>0</v>
@@ -20547,7 +20544,7 @@
         <v>889</v>
       </c>
       <c r="C610" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -20573,7 +20570,7 @@
         <v>889</v>
       </c>
       <c r="C611" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -20599,7 +20596,7 @@
         <v>889</v>
       </c>
       <c r="C612" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D612">
         <v>0</v>
@@ -20625,7 +20622,7 @@
         <v>889</v>
       </c>
       <c r="C613" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -20651,7 +20648,7 @@
         <v>889</v>
       </c>
       <c r="C614" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -20677,7 +20674,7 @@
         <v>889</v>
       </c>
       <c r="C615" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -20703,7 +20700,7 @@
         <v>889</v>
       </c>
       <c r="C616" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -20729,7 +20726,7 @@
         <v>889</v>
       </c>
       <c r="C617" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -20755,7 +20752,7 @@
         <v>889</v>
       </c>
       <c r="C618" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -20781,7 +20778,7 @@
         <v>889</v>
       </c>
       <c r="C619" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D619">
         <v>0</v>
@@ -20807,7 +20804,7 @@
         <v>889</v>
       </c>
       <c r="C620" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -20833,7 +20830,7 @@
         <v>889</v>
       </c>
       <c r="C621" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D621">
         <v>0</v>
@@ -20859,7 +20856,7 @@
         <v>889</v>
       </c>
       <c r="C622" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D622">
         <v>0</v>
@@ -20885,7 +20882,7 @@
         <v>889</v>
       </c>
       <c r="C623" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -20911,7 +20908,7 @@
         <v>889</v>
       </c>
       <c r="C624" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -20937,7 +20934,7 @@
         <v>889</v>
       </c>
       <c r="C625" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D625">
         <v>0</v>
@@ -20963,7 +20960,7 @@
         <v>889</v>
       </c>
       <c r="C626" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D626">
         <v>0</v>
@@ -20989,7 +20986,7 @@
         <v>889</v>
       </c>
       <c r="C627" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D627">
         <v>0</v>
@@ -21015,7 +21012,7 @@
         <v>889</v>
       </c>
       <c r="C628" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -21041,7 +21038,7 @@
         <v>889</v>
       </c>
       <c r="C629" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -21067,7 +21064,7 @@
         <v>889</v>
       </c>
       <c r="C630" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -21093,7 +21090,7 @@
         <v>889</v>
       </c>
       <c r="C631" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -21119,7 +21116,7 @@
         <v>889</v>
       </c>
       <c r="C632" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -21145,7 +21142,7 @@
         <v>889</v>
       </c>
       <c r="C633" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -21171,7 +21168,7 @@
         <v>889</v>
       </c>
       <c r="C634" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -21197,7 +21194,7 @@
         <v>889</v>
       </c>
       <c r="C635" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -21223,7 +21220,7 @@
         <v>889</v>
       </c>
       <c r="C636" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -21249,7 +21246,7 @@
         <v>889</v>
       </c>
       <c r="C637" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -21275,7 +21272,7 @@
         <v>889</v>
       </c>
       <c r="C638" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -21301,7 +21298,7 @@
         <v>889</v>
       </c>
       <c r="C639" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -21327,7 +21324,7 @@
         <v>889</v>
       </c>
       <c r="C640" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -21353,7 +21350,7 @@
         <v>889</v>
       </c>
       <c r="C641" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -21379,7 +21376,7 @@
         <v>889</v>
       </c>
       <c r="C642" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -21405,7 +21402,7 @@
         <v>889</v>
       </c>
       <c r="C643" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -21431,7 +21428,7 @@
         <v>889</v>
       </c>
       <c r="C644" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -21457,7 +21454,7 @@
         <v>889</v>
       </c>
       <c r="C645" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -21483,7 +21480,7 @@
         <v>889</v>
       </c>
       <c r="C646" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -21509,7 +21506,7 @@
         <v>889</v>
       </c>
       <c r="C647" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -21535,7 +21532,7 @@
         <v>889</v>
       </c>
       <c r="C648" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -21561,7 +21558,7 @@
         <v>889</v>
       </c>
       <c r="C649" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -21587,7 +21584,7 @@
         <v>889</v>
       </c>
       <c r="C650" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -21613,7 +21610,7 @@
         <v>889</v>
       </c>
       <c r="C651" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -21639,7 +21636,7 @@
         <v>889</v>
       </c>
       <c r="C652" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -21665,7 +21662,7 @@
         <v>889</v>
       </c>
       <c r="C653" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -21691,7 +21688,7 @@
         <v>889</v>
       </c>
       <c r="C654" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -21717,7 +21714,7 @@
         <v>889</v>
       </c>
       <c r="C655" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D655">
         <v>0</v>
@@ -21743,7 +21740,7 @@
         <v>889</v>
       </c>
       <c r="C656" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -21769,7 +21766,7 @@
         <v>889</v>
       </c>
       <c r="C657" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -21795,7 +21792,7 @@
         <v>889</v>
       </c>
       <c r="C658" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -21821,7 +21818,7 @@
         <v>889</v>
       </c>
       <c r="C659" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -21847,7 +21844,7 @@
         <v>889</v>
       </c>
       <c r="C660" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -21873,7 +21870,7 @@
         <v>889</v>
       </c>
       <c r="C661" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -21899,7 +21896,7 @@
         <v>889</v>
       </c>
       <c r="C662" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -21925,7 +21922,7 @@
         <v>889</v>
       </c>
       <c r="C663" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -21951,7 +21948,7 @@
         <v>889</v>
       </c>
       <c r="C664" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -21977,7 +21974,7 @@
         <v>889</v>
       </c>
       <c r="C665" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D665">
         <v>0</v>
@@ -22003,7 +22000,7 @@
         <v>889</v>
       </c>
       <c r="C666" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -22029,7 +22026,7 @@
         <v>889</v>
       </c>
       <c r="C667" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -22055,7 +22052,7 @@
         <v>889</v>
       </c>
       <c r="C668" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -22081,7 +22078,7 @@
         <v>889</v>
       </c>
       <c r="C669" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -22107,7 +22104,7 @@
         <v>889</v>
       </c>
       <c r="C670" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D670">
         <v>0</v>
@@ -22133,7 +22130,7 @@
         <v>889</v>
       </c>
       <c r="C671" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -22159,7 +22156,7 @@
         <v>889</v>
       </c>
       <c r="C672" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -22185,7 +22182,7 @@
         <v>889</v>
       </c>
       <c r="C673" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -22211,7 +22208,7 @@
         <v>889</v>
       </c>
       <c r="C674" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D674">
         <v>0</v>
@@ -22237,7 +22234,7 @@
         <v>889</v>
       </c>
       <c r="C675" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D675">
         <v>0</v>
@@ -22263,7 +22260,7 @@
         <v>889</v>
       </c>
       <c r="C676" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -22289,7 +22286,7 @@
         <v>889</v>
       </c>
       <c r="C677" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -22315,7 +22312,7 @@
         <v>889</v>
       </c>
       <c r="C678" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -22341,7 +22338,7 @@
         <v>889</v>
       </c>
       <c r="C679" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -22367,7 +22364,7 @@
         <v>889</v>
       </c>
       <c r="C680" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D680">
         <v>0</v>
@@ -22393,7 +22390,7 @@
         <v>889</v>
       </c>
       <c r="C681" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -22419,7 +22416,7 @@
         <v>889</v>
       </c>
       <c r="C682" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -22445,7 +22442,7 @@
         <v>889</v>
       </c>
       <c r="C683" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -22471,7 +22468,7 @@
         <v>889</v>
       </c>
       <c r="C684" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -22497,7 +22494,7 @@
         <v>889</v>
       </c>
       <c r="C685" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D685">
         <v>0</v>
@@ -22523,7 +22520,7 @@
         <v>889</v>
       </c>
       <c r="C686" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D686">
         <v>0</v>
@@ -22549,7 +22546,7 @@
         <v>889</v>
       </c>
       <c r="C687" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -22575,7 +22572,7 @@
         <v>889</v>
       </c>
       <c r="C688" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D688">
         <v>0</v>
@@ -22601,7 +22598,7 @@
         <v>889</v>
       </c>
       <c r="C689" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D689">
         <v>0</v>
@@ -22627,7 +22624,7 @@
         <v>889</v>
       </c>
       <c r="C690" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D690">
         <v>0</v>
@@ -22653,7 +22650,7 @@
         <v>889</v>
       </c>
       <c r="C691" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D691">
         <v>0</v>
@@ -22679,7 +22676,7 @@
         <v>889</v>
       </c>
       <c r="C692" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D692">
         <v>0</v>
@@ -22705,7 +22702,7 @@
         <v>889</v>
       </c>
       <c r="C693" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -22731,7 +22728,7 @@
         <v>889</v>
       </c>
       <c r="C694" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D694">
         <v>0</v>
@@ -22757,7 +22754,7 @@
         <v>889</v>
       </c>
       <c r="C695" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D695">
         <v>0</v>
@@ -22783,7 +22780,7 @@
         <v>889</v>
       </c>
       <c r="C696" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D696">
         <v>0</v>
@@ -22809,7 +22806,7 @@
         <v>889</v>
       </c>
       <c r="C697" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D697">
         <v>0</v>
@@ -22835,7 +22832,7 @@
         <v>889</v>
       </c>
       <c r="C698" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -22861,7 +22858,7 @@
         <v>889</v>
       </c>
       <c r="C699" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D699">
         <v>0</v>
@@ -22887,7 +22884,7 @@
         <v>889</v>
       </c>
       <c r="C700" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D700">
         <v>0</v>
@@ -22913,7 +22910,7 @@
         <v>889</v>
       </c>
       <c r="C701" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D701">
         <v>0</v>
@@ -22939,7 +22936,7 @@
         <v>889</v>
       </c>
       <c r="C702" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D702">
         <v>0</v>
@@ -22965,7 +22962,7 @@
         <v>889</v>
       </c>
       <c r="C703" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D703">
         <v>0</v>
@@ -22991,7 +22988,7 @@
         <v>889</v>
       </c>
       <c r="C704" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D704">
         <v>0</v>
@@ -23017,7 +23014,7 @@
         <v>889</v>
       </c>
       <c r="C705" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D705">
         <v>0</v>
@@ -23043,7 +23040,7 @@
         <v>889</v>
       </c>
       <c r="C706" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -23069,7 +23066,7 @@
         <v>889</v>
       </c>
       <c r="C707" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D707">
         <v>0</v>
@@ -23095,7 +23092,7 @@
         <v>889</v>
       </c>
       <c r="C708" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -23121,7 +23118,7 @@
         <v>889</v>
       </c>
       <c r="C709" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -23147,7 +23144,7 @@
         <v>889</v>
       </c>
       <c r="C710" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D710">
         <v>0</v>
@@ -23173,7 +23170,7 @@
         <v>889</v>
       </c>
       <c r="C711" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D711">
         <v>0</v>
@@ -23199,7 +23196,7 @@
         <v>889</v>
       </c>
       <c r="C712" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -23225,7 +23222,7 @@
         <v>889</v>
       </c>
       <c r="C713" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D713">
         <v>0</v>
@@ -23251,7 +23248,7 @@
         <v>889</v>
       </c>
       <c r="C714" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D714">
         <v>0</v>
@@ -23277,7 +23274,7 @@
         <v>889</v>
       </c>
       <c r="C715" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D715">
         <v>0</v>
@@ -23303,7 +23300,7 @@
         <v>889</v>
       </c>
       <c r="C716" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D716">
         <v>0</v>
@@ -23329,7 +23326,7 @@
         <v>889</v>
       </c>
       <c r="C717" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D717">
         <v>0</v>
@@ -23355,7 +23352,7 @@
         <v>889</v>
       </c>
       <c r="C718" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D718">
         <v>0</v>
@@ -23381,7 +23378,7 @@
         <v>889</v>
       </c>
       <c r="C719" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D719">
         <v>0</v>
@@ -23407,7 +23404,7 @@
         <v>889</v>
       </c>
       <c r="C720" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D720">
         <v>0</v>
@@ -23433,7 +23430,7 @@
         <v>889</v>
       </c>
       <c r="C721" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D721">
         <v>0</v>
@@ -23459,7 +23456,7 @@
         <v>889</v>
       </c>
       <c r="C722" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D722">
         <v>0</v>
@@ -23485,7 +23482,7 @@
         <v>889</v>
       </c>
       <c r="C723" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D723">
         <v>0</v>
@@ -23511,7 +23508,7 @@
         <v>889</v>
       </c>
       <c r="C724" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D724">
         <v>0</v>
@@ -23537,7 +23534,7 @@
         <v>889</v>
       </c>
       <c r="C725" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D725">
         <v>0</v>
@@ -23563,7 +23560,7 @@
         <v>889</v>
       </c>
       <c r="C726" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D726">
         <v>0</v>
@@ -23589,7 +23586,7 @@
         <v>889</v>
       </c>
       <c r="C727" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D727">
         <v>0</v>
@@ -23615,7 +23612,7 @@
         <v>889</v>
       </c>
       <c r="C728" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D728">
         <v>0</v>
@@ -23641,7 +23638,7 @@
         <v>889</v>
       </c>
       <c r="C729" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D729">
         <v>0</v>
@@ -23667,7 +23664,7 @@
         <v>889</v>
       </c>
       <c r="C730" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D730">
         <v>0</v>
@@ -23693,7 +23690,7 @@
         <v>889</v>
       </c>
       <c r="C731" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D731">
         <v>0</v>
@@ -23719,7 +23716,7 @@
         <v>889</v>
       </c>
       <c r="C732" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D732">
         <v>0</v>
@@ -23745,7 +23742,7 @@
         <v>889</v>
       </c>
       <c r="C733" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D733">
         <v>0</v>
@@ -23771,7 +23768,7 @@
         <v>889</v>
       </c>
       <c r="C734" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D734">
         <v>0</v>
@@ -23797,7 +23794,7 @@
         <v>889</v>
       </c>
       <c r="C735" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D735">
         <v>0</v>
@@ -23823,7 +23820,7 @@
         <v>889</v>
       </c>
       <c r="C736" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D736">
         <v>0</v>
@@ -23849,7 +23846,7 @@
         <v>889</v>
       </c>
       <c r="C737" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D737">
         <v>0</v>
@@ -23875,7 +23872,7 @@
         <v>889</v>
       </c>
       <c r="C738" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D738">
         <v>0</v>
@@ -23901,7 +23898,7 @@
         <v>889</v>
       </c>
       <c r="C739" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D739">
         <v>0</v>
@@ -23927,7 +23924,7 @@
         <v>889</v>
       </c>
       <c r="C740" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D740">
         <v>0</v>
@@ -23953,7 +23950,7 @@
         <v>889</v>
       </c>
       <c r="C741" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D741">
         <v>0</v>
@@ -23979,7 +23976,7 @@
         <v>889</v>
       </c>
       <c r="C742" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D742">
         <v>0</v>
@@ -24005,7 +24002,7 @@
         <v>889</v>
       </c>
       <c r="C743" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D743">
         <v>0</v>
@@ -24031,7 +24028,7 @@
         <v>889</v>
       </c>
       <c r="C744" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D744">
         <v>0</v>
@@ -24057,7 +24054,7 @@
         <v>889</v>
       </c>
       <c r="C745" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D745">
         <v>0</v>
@@ -24083,7 +24080,7 @@
         <v>889</v>
       </c>
       <c r="C746" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D746">
         <v>0</v>
@@ -24109,7 +24106,7 @@
         <v>889</v>
       </c>
       <c r="C747" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D747">
         <v>0</v>
@@ -24135,7 +24132,7 @@
         <v>889</v>
       </c>
       <c r="C748" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D748">
         <v>0</v>
@@ -24161,7 +24158,7 @@
         <v>889</v>
       </c>
       <c r="C749" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D749">
         <v>0</v>
@@ -24187,7 +24184,7 @@
         <v>889</v>
       </c>
       <c r="C750" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D750">
         <v>0</v>
@@ -24213,7 +24210,7 @@
         <v>889</v>
       </c>
       <c r="C751" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D751">
         <v>0</v>
@@ -24239,7 +24236,7 @@
         <v>889</v>
       </c>
       <c r="C752" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D752">
         <v>0</v>
@@ -24265,7 +24262,7 @@
         <v>889</v>
       </c>
       <c r="C753" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D753">
         <v>0</v>
@@ -24291,7 +24288,7 @@
         <v>889</v>
       </c>
       <c r="C754" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D754">
         <v>0</v>
@@ -24317,7 +24314,7 @@
         <v>889</v>
       </c>
       <c r="C755" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D755">
         <v>0</v>
@@ -24343,7 +24340,7 @@
         <v>889</v>
       </c>
       <c r="C756" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D756">
         <v>0</v>
@@ -24369,7 +24366,7 @@
         <v>889</v>
       </c>
       <c r="C757" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D757">
         <v>0</v>
@@ -24395,7 +24392,7 @@
         <v>889</v>
       </c>
       <c r="C758" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D758">
         <v>0</v>
@@ -24421,7 +24418,7 @@
         <v>889</v>
       </c>
       <c r="C759" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D759">
         <v>0</v>
@@ -24447,7 +24444,7 @@
         <v>889</v>
       </c>
       <c r="C760" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D760">
         <v>0</v>
@@ -24473,7 +24470,7 @@
         <v>889</v>
       </c>
       <c r="C761" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D761">
         <v>0</v>
@@ -24499,7 +24496,7 @@
         <v>889</v>
       </c>
       <c r="C762" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D762">
         <v>0</v>
@@ -24525,7 +24522,7 @@
         <v>889</v>
       </c>
       <c r="C763" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D763">
         <v>0</v>
@@ -24551,7 +24548,7 @@
         <v>889</v>
       </c>
       <c r="C764" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D764">
         <v>0</v>
@@ -24577,7 +24574,7 @@
         <v>889</v>
       </c>
       <c r="C765" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D765">
         <v>0</v>
@@ -24603,7 +24600,7 @@
         <v>889</v>
       </c>
       <c r="C766" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D766">
         <v>0</v>
@@ -24629,7 +24626,7 @@
         <v>889</v>
       </c>
       <c r="C767" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D767">
         <v>0</v>
@@ -24655,7 +24652,7 @@
         <v>889</v>
       </c>
       <c r="C768" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D768">
         <v>0</v>
@@ -24681,7 +24678,7 @@
         <v>889</v>
       </c>
       <c r="C769" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D769">
         <v>0</v>
@@ -24707,7 +24704,7 @@
         <v>889</v>
       </c>
       <c r="C770" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D770">
         <v>0</v>
@@ -24733,7 +24730,7 @@
         <v>889</v>
       </c>
       <c r="C771" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D771">
         <v>0</v>
@@ -24759,7 +24756,7 @@
         <v>889</v>
       </c>
       <c r="C772" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D772">
         <v>0</v>
@@ -24785,7 +24782,7 @@
         <v>889</v>
       </c>
       <c r="C773" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D773">
         <v>0</v>
@@ -24811,7 +24808,7 @@
         <v>889</v>
       </c>
       <c r="C774" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D774">
         <v>0</v>
@@ -24837,7 +24834,7 @@
         <v>889</v>
       </c>
       <c r="C775" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D775">
         <v>0</v>
@@ -24863,7 +24860,7 @@
         <v>889</v>
       </c>
       <c r="C776" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D776">
         <v>0</v>
@@ -24889,7 +24886,7 @@
         <v>889</v>
       </c>
       <c r="C777" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D777">
         <v>0</v>
@@ -24904,32 +24901,6 @@
         <v>0</v>
       </c>
       <c r="H777">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A778">
-        <v>87400569</v>
-      </c>
-      <c r="B778" t="s">
-        <v>889</v>
-      </c>
-      <c r="C778" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D778">
-        <v>0</v>
-      </c>
-      <c r="E778" t="s">
-        <v>110</v>
-      </c>
-      <c r="F778" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G778">
-        <v>0</v>
-      </c>
-      <c r="H778">
         <v>0</v>
       </c>
     </row>
@@ -28825,7 +28796,7 @@
         <v>211</v>
       </c>
       <c r="G149" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H149">
         <v>1</v>

--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A818C-FD39-4E8B-8D23-05F062207158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DE555-6349-4D65-94B0-02861EC0EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="1477">
   <si>
     <t>#ID</t>
   </si>
@@ -4373,34 +4373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆击率+7%，气血+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆击率+8%，气血+700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率+8%，气血+700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率+7%，气血+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击率+7%，气血+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击率+8%，气血+700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动格数+1，内力+700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(6,15,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4426,6 +4398,94 @@
   </si>
   <si>
     <t>(8,99001,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,53,3)*(1,1,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,53,4)*(1,1,300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,53,5)*(1,1,400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击率+3%，气血+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击率+4%，气血+300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击率+5%，气血+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,51,3)*(1,1,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,51,4)*(1,1,300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,51,5)*(1,1,400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+3%，气血+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+4%，气血+300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+5%，气血+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,52,3)*(1,1,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,52,4)*(1,1,300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,52,5)*(1,1,400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击率+3%，气血+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击率+4%，气血+300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击率+5%，气血+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动格数+1，内力+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动格数+1，内力+300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,4,1)*(1,3,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,4,1)*(1,3,300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4792,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8906,7 +8966,7 @@
         <v>110</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -9764,10 +9824,10 @@
         <v>110</v>
       </c>
       <c r="F195" t="s">
-        <v>160</v>
+        <v>1455</v>
       </c>
       <c r="G195" t="s">
-        <v>161</v>
+        <v>1458</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -9790,10 +9850,10 @@
         <v>110</v>
       </c>
       <c r="F196" t="s">
-        <v>163</v>
+        <v>1456</v>
       </c>
       <c r="G196" t="s">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -9816,10 +9876,10 @@
         <v>110</v>
       </c>
       <c r="F197" t="s">
-        <v>166</v>
+        <v>1457</v>
       </c>
       <c r="G197" t="s">
-        <v>1449</v>
+        <v>1460</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -9842,10 +9902,10 @@
         <v>110</v>
       </c>
       <c r="F198" t="s">
-        <v>169</v>
+        <v>1461</v>
       </c>
       <c r="G198" t="s">
-        <v>170</v>
+        <v>1464</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -9868,10 +9928,10 @@
         <v>110</v>
       </c>
       <c r="F199" t="s">
-        <v>172</v>
+        <v>1462</v>
       </c>
       <c r="G199" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -9894,10 +9954,10 @@
         <v>110</v>
       </c>
       <c r="F200" t="s">
-        <v>175</v>
+        <v>1463</v>
       </c>
       <c r="G200" t="s">
-        <v>1450</v>
+        <v>1466</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -9920,10 +9980,10 @@
         <v>110</v>
       </c>
       <c r="F201" t="s">
-        <v>178</v>
+        <v>1467</v>
       </c>
       <c r="G201" t="s">
-        <v>179</v>
+        <v>1470</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -9946,10 +10006,10 @@
         <v>110</v>
       </c>
       <c r="F202" t="s">
-        <v>181</v>
+        <v>1468</v>
       </c>
       <c r="G202" t="s">
-        <v>1452</v>
+        <v>1471</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -9972,10 +10032,10 @@
         <v>110</v>
       </c>
       <c r="F203" t="s">
-        <v>184</v>
+        <v>1469</v>
       </c>
       <c r="G203" t="s">
-        <v>1453</v>
+        <v>1472</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -9998,10 +10058,10 @@
         <v>110</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
+        <v>1475</v>
       </c>
       <c r="G204" t="s">
-        <v>206</v>
+        <v>1473</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -10024,10 +10084,10 @@
         <v>110</v>
       </c>
       <c r="F205" t="s">
-        <v>205</v>
+        <v>1476</v>
       </c>
       <c r="G205" t="s">
-        <v>1454</v>
+        <v>1474</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -10050,10 +10110,10 @@
         <v>110</v>
       </c>
       <c r="F206" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="G206" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -10076,10 +10136,10 @@
         <v>110</v>
       </c>
       <c r="F207" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="G207" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -10102,10 +10162,10 @@
         <v>110</v>
       </c>
       <c r="F208" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="G208" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="H208">
         <v>2</v>

--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DE555-6349-4D65-94B0-02861EC0EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123E4CCC-EF1C-49BF-B646-F5773403C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="1471">
   <si>
     <t>#ID</t>
   </si>
@@ -3449,12 +3449,6 @@
     <t>(2,120050,0)</t>
   </si>
   <si>
-    <t>(2,120051,0)</t>
-  </si>
-  <si>
-    <t>(2,120052,0)</t>
-  </si>
-  <si>
     <t>(2,120053,0)</t>
   </si>
   <si>
@@ -3563,12 +3557,6 @@
     <t>(2,130011,0)</t>
   </si>
   <si>
-    <t>(2,130012,0)</t>
-  </si>
-  <si>
-    <t>(2,130013,0)</t>
-  </si>
-  <si>
     <t>(2,130014,0)</t>
   </si>
   <si>
@@ -3734,15 +3722,6 @@
     <t>(2,140060,0)</t>
   </si>
   <si>
-    <t>(2,140064,0)</t>
-  </si>
-  <si>
-    <t>(2,140065,0)</t>
-  </si>
-  <si>
-    <t>(2,140066,0)</t>
-  </si>
-  <si>
     <t>(2,140067,0)</t>
   </si>
   <si>
@@ -3879,12 +3858,6 @@
   </si>
   <si>
     <t>(2,140130,0)</t>
-  </si>
-  <si>
-    <t>(2,140131,0)</t>
-  </si>
-  <si>
-    <t>(2,140132,0)</t>
   </si>
   <si>
     <t>(2,140133,0)</t>
@@ -4487,6 +4460,15 @@
   <si>
     <t>(1,4,1)*(1,3,300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功</t>
+  </si>
+  <si>
+    <t>TalentIcon18</t>
+  </si>
+  <si>
+    <t>(2,871487,0)</t>
   </si>
 </sst>
 </file>
@@ -4850,19 +4832,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H776"/>
+  <dimension ref="A1:H768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M768" sqref="M768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="57.375" customWidth="1"/>
+    <col min="1" max="3" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4905,7 +4886,7 @@
         <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4928,7 +4909,7 @@
         <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4951,7 +4932,7 @@
         <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4974,7 +4955,7 @@
         <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4997,7 +4978,7 @@
         <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5020,7 +5001,7 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5043,7 +5024,7 @@
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5066,7 +5047,7 @@
         <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5089,7 +5070,7 @@
         <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5112,7 +5093,7 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5135,7 +5116,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5158,7 +5139,7 @@
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5296,7 +5277,7 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5319,7 +5300,7 @@
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5342,7 +5323,7 @@
         <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5365,7 +5346,7 @@
         <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5388,7 +5369,7 @@
         <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5411,7 +5392,7 @@
         <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5434,7 +5415,7 @@
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5457,7 +5438,7 @@
         <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5480,7 +5461,7 @@
         <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5503,7 +5484,7 @@
         <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5526,7 +5507,7 @@
         <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5549,7 +5530,7 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5572,7 +5553,7 @@
         <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5595,7 +5576,7 @@
         <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5618,7 +5599,7 @@
         <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5641,7 +5622,7 @@
         <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5664,7 +5645,7 @@
         <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -8966,7 +8947,7 @@
         <v>110</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -8983,7 +8964,7 @@
         <v>867</v>
       </c>
       <c r="C163" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9009,7 +8990,7 @@
         <v>867</v>
       </c>
       <c r="C164" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -9035,7 +9016,7 @@
         <v>867</v>
       </c>
       <c r="C165" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -9061,7 +9042,7 @@
         <v>867</v>
       </c>
       <c r="C166" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -9087,7 +9068,7 @@
         <v>867</v>
       </c>
       <c r="C167" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -9113,7 +9094,7 @@
         <v>867</v>
       </c>
       <c r="C168" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -9139,7 +9120,7 @@
         <v>867</v>
       </c>
       <c r="C169" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -9165,7 +9146,7 @@
         <v>867</v>
       </c>
       <c r="C170" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -9191,7 +9172,7 @@
         <v>867</v>
       </c>
       <c r="C171" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -9217,7 +9198,7 @@
         <v>867</v>
       </c>
       <c r="C172" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -9243,7 +9224,7 @@
         <v>867</v>
       </c>
       <c r="C173" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -9269,7 +9250,7 @@
         <v>867</v>
       </c>
       <c r="C174" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -9295,7 +9276,7 @@
         <v>867</v>
       </c>
       <c r="C175" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -9321,7 +9302,7 @@
         <v>867</v>
       </c>
       <c r="C176" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9347,7 +9328,7 @@
         <v>867</v>
       </c>
       <c r="C177" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9373,7 +9354,7 @@
         <v>867</v>
       </c>
       <c r="C178" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -9399,7 +9380,7 @@
         <v>867</v>
       </c>
       <c r="C179" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9425,7 +9406,7 @@
         <v>867</v>
       </c>
       <c r="C180" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9451,7 +9432,7 @@
         <v>867</v>
       </c>
       <c r="C181" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -9477,7 +9458,7 @@
         <v>867</v>
       </c>
       <c r="C182" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -9503,7 +9484,7 @@
         <v>867</v>
       </c>
       <c r="C183" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -9529,7 +9510,7 @@
         <v>867</v>
       </c>
       <c r="C184" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -9555,7 +9536,7 @@
         <v>867</v>
       </c>
       <c r="C185" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -9581,7 +9562,7 @@
         <v>867</v>
       </c>
       <c r="C186" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -9607,7 +9588,7 @@
         <v>867</v>
       </c>
       <c r="C187" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -9633,7 +9614,7 @@
         <v>867</v>
       </c>
       <c r="C188" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -9659,7 +9640,7 @@
         <v>867</v>
       </c>
       <c r="C189" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -9685,7 +9666,7 @@
         <v>867</v>
       </c>
       <c r="C190" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -9711,7 +9692,7 @@
         <v>295</v>
       </c>
       <c r="C191" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -9737,7 +9718,7 @@
         <v>296</v>
       </c>
       <c r="C192" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -9749,7 +9730,7 @@
         <v>151</v>
       </c>
       <c r="G192" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -9763,7 +9744,7 @@
         <v>153</v>
       </c>
       <c r="C193" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -9789,7 +9770,7 @@
         <v>156</v>
       </c>
       <c r="C194" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -9801,7 +9782,7 @@
         <v>157</v>
       </c>
       <c r="G194" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -9815,7 +9796,7 @@
         <v>159</v>
       </c>
       <c r="C195" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -9824,10 +9805,10 @@
         <v>110</v>
       </c>
       <c r="F195" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="G195" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -9841,7 +9822,7 @@
         <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9850,10 +9831,10 @@
         <v>110</v>
       </c>
       <c r="F196" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="G196" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -9867,7 +9848,7 @@
         <v>165</v>
       </c>
       <c r="C197" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -9876,10 +9857,10 @@
         <v>110</v>
       </c>
       <c r="F197" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="G197" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -9893,7 +9874,7 @@
         <v>168</v>
       </c>
       <c r="C198" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -9902,10 +9883,10 @@
         <v>110</v>
       </c>
       <c r="F198" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="G198" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -9919,7 +9900,7 @@
         <v>171</v>
       </c>
       <c r="C199" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -9928,10 +9909,10 @@
         <v>110</v>
       </c>
       <c r="F199" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="G199" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -9945,7 +9926,7 @@
         <v>174</v>
       </c>
       <c r="C200" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9954,10 +9935,10 @@
         <v>110</v>
       </c>
       <c r="F200" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="G200" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -9971,7 +9952,7 @@
         <v>177</v>
       </c>
       <c r="C201" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9980,10 +9961,10 @@
         <v>110</v>
       </c>
       <c r="F201" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G201" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -9997,7 +9978,7 @@
         <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -10006,10 +9987,10 @@
         <v>110</v>
       </c>
       <c r="F202" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G202" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -10023,7 +10004,7 @@
         <v>183</v>
       </c>
       <c r="C203" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -10032,10 +10013,10 @@
         <v>110</v>
       </c>
       <c r="F203" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="G203" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -10049,7 +10030,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -10058,10 +10039,10 @@
         <v>110</v>
       </c>
       <c r="F204" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="G204" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -10075,7 +10056,7 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -10084,10 +10065,10 @@
         <v>110</v>
       </c>
       <c r="F205" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="G205" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -10101,7 +10082,7 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -10110,10 +10091,10 @@
         <v>110</v>
       </c>
       <c r="F206" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G206" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -10127,7 +10108,7 @@
         <v>213</v>
       </c>
       <c r="C207" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -10136,10 +10117,10 @@
         <v>110</v>
       </c>
       <c r="F207" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G207" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -10153,7 +10134,7 @@
         <v>216</v>
       </c>
       <c r="C208" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -10162,10 +10143,10 @@
         <v>110</v>
       </c>
       <c r="F208" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="G208" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -10179,7 +10160,7 @@
         <v>888</v>
       </c>
       <c r="C209" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -10205,7 +10186,7 @@
         <v>888</v>
       </c>
       <c r="C210" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -10231,7 +10212,7 @@
         <v>888</v>
       </c>
       <c r="C211" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -10257,7 +10238,7 @@
         <v>888</v>
       </c>
       <c r="C212" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -10283,7 +10264,7 @@
         <v>888</v>
       </c>
       <c r="C213" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -10309,7 +10290,7 @@
         <v>888</v>
       </c>
       <c r="C214" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -10335,7 +10316,7 @@
         <v>888</v>
       </c>
       <c r="C215" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -10361,7 +10342,7 @@
         <v>888</v>
       </c>
       <c r="C216" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -10387,7 +10368,7 @@
         <v>888</v>
       </c>
       <c r="C217" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -10413,7 +10394,7 @@
         <v>888</v>
       </c>
       <c r="C218" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -10439,7 +10420,7 @@
         <v>888</v>
       </c>
       <c r="C219" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -10465,7 +10446,7 @@
         <v>888</v>
       </c>
       <c r="C220" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -10491,7 +10472,7 @@
         <v>888</v>
       </c>
       <c r="C221" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -10517,7 +10498,7 @@
         <v>888</v>
       </c>
       <c r="C222" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -10543,7 +10524,7 @@
         <v>888</v>
       </c>
       <c r="C223" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -10569,7 +10550,7 @@
         <v>888</v>
       </c>
       <c r="C224" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10595,7 +10576,7 @@
         <v>888</v>
       </c>
       <c r="C225" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10621,7 +10602,7 @@
         <v>888</v>
       </c>
       <c r="C226" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -10647,7 +10628,7 @@
         <v>888</v>
       </c>
       <c r="C227" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -10673,7 +10654,7 @@
         <v>888</v>
       </c>
       <c r="C228" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -10699,7 +10680,7 @@
         <v>888</v>
       </c>
       <c r="C229" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -10725,7 +10706,7 @@
         <v>888</v>
       </c>
       <c r="C230" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10751,7 +10732,7 @@
         <v>888</v>
       </c>
       <c r="C231" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10777,7 +10758,7 @@
         <v>888</v>
       </c>
       <c r="C232" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10803,7 +10784,7 @@
         <v>888</v>
       </c>
       <c r="C233" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10829,7 +10810,7 @@
         <v>888</v>
       </c>
       <c r="C234" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10855,7 +10836,7 @@
         <v>888</v>
       </c>
       <c r="C235" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10881,7 +10862,7 @@
         <v>888</v>
       </c>
       <c r="C236" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10907,7 +10888,7 @@
         <v>888</v>
       </c>
       <c r="C237" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10933,7 +10914,7 @@
         <v>888</v>
       </c>
       <c r="C238" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10959,7 +10940,7 @@
         <v>888</v>
       </c>
       <c r="C239" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10985,7 +10966,7 @@
         <v>888</v>
       </c>
       <c r="C240" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -11011,7 +10992,7 @@
         <v>888</v>
       </c>
       <c r="C241" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -11037,7 +11018,7 @@
         <v>888</v>
       </c>
       <c r="C242" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -11063,7 +11044,7 @@
         <v>888</v>
       </c>
       <c r="C243" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -11089,7 +11070,7 @@
         <v>888</v>
       </c>
       <c r="C244" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -11115,7 +11096,7 @@
         <v>888</v>
       </c>
       <c r="C245" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -11141,7 +11122,7 @@
         <v>888</v>
       </c>
       <c r="C246" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -11167,7 +11148,7 @@
         <v>888</v>
       </c>
       <c r="C247" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -11193,7 +11174,7 @@
         <v>888</v>
       </c>
       <c r="C248" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -11219,7 +11200,7 @@
         <v>888</v>
       </c>
       <c r="C249" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11245,7 +11226,7 @@
         <v>888</v>
       </c>
       <c r="C250" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11271,7 +11252,7 @@
         <v>888</v>
       </c>
       <c r="C251" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11297,7 +11278,7 @@
         <v>888</v>
       </c>
       <c r="C252" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -11323,7 +11304,7 @@
         <v>888</v>
       </c>
       <c r="C253" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -11349,7 +11330,7 @@
         <v>888</v>
       </c>
       <c r="C254" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -11375,7 +11356,7 @@
         <v>888</v>
       </c>
       <c r="C255" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -11401,7 +11382,7 @@
         <v>888</v>
       </c>
       <c r="C256" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11427,7 +11408,7 @@
         <v>888</v>
       </c>
       <c r="C257" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -11453,7 +11434,7 @@
         <v>888</v>
       </c>
       <c r="C258" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -11479,7 +11460,7 @@
         <v>888</v>
       </c>
       <c r="C259" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -11505,7 +11486,7 @@
         <v>888</v>
       </c>
       <c r="C260" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11531,7 +11512,7 @@
         <v>888</v>
       </c>
       <c r="C261" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11557,7 +11538,7 @@
         <v>888</v>
       </c>
       <c r="C262" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -11583,7 +11564,7 @@
         <v>888</v>
       </c>
       <c r="C263" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11609,7 +11590,7 @@
         <v>888</v>
       </c>
       <c r="C264" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11635,7 +11616,7 @@
         <v>888</v>
       </c>
       <c r="C265" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11661,7 +11642,7 @@
         <v>888</v>
       </c>
       <c r="C266" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11687,7 +11668,7 @@
         <v>888</v>
       </c>
       <c r="C267" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -11713,7 +11694,7 @@
         <v>888</v>
       </c>
       <c r="C268" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -11739,7 +11720,7 @@
         <v>888</v>
       </c>
       <c r="C269" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -11765,7 +11746,7 @@
         <v>888</v>
       </c>
       <c r="C270" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11791,7 +11772,7 @@
         <v>888</v>
       </c>
       <c r="C271" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -11817,7 +11798,7 @@
         <v>888</v>
       </c>
       <c r="C272" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -11843,7 +11824,7 @@
         <v>888</v>
       </c>
       <c r="C273" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11869,7 +11850,7 @@
         <v>888</v>
       </c>
       <c r="C274" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -11895,7 +11876,7 @@
         <v>888</v>
       </c>
       <c r="C275" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -11921,7 +11902,7 @@
         <v>888</v>
       </c>
       <c r="C276" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -11947,7 +11928,7 @@
         <v>888</v>
       </c>
       <c r="C277" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -11973,7 +11954,7 @@
         <v>888</v>
       </c>
       <c r="C278" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -11999,7 +11980,7 @@
         <v>888</v>
       </c>
       <c r="C279" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -12025,7 +12006,7 @@
         <v>888</v>
       </c>
       <c r="C280" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -12051,7 +12032,7 @@
         <v>888</v>
       </c>
       <c r="C281" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -12077,7 +12058,7 @@
         <v>888</v>
       </c>
       <c r="C282" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -12103,7 +12084,7 @@
         <v>888</v>
       </c>
       <c r="C283" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -12129,7 +12110,7 @@
         <v>888</v>
       </c>
       <c r="C284" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -12155,7 +12136,7 @@
         <v>888</v>
       </c>
       <c r="C285" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -12181,7 +12162,7 @@
         <v>888</v>
       </c>
       <c r="C286" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -12207,7 +12188,7 @@
         <v>888</v>
       </c>
       <c r="C287" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -12233,7 +12214,7 @@
         <v>888</v>
       </c>
       <c r="C288" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -12259,7 +12240,7 @@
         <v>888</v>
       </c>
       <c r="C289" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -12285,7 +12266,7 @@
         <v>888</v>
       </c>
       <c r="C290" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12311,7 +12292,7 @@
         <v>888</v>
       </c>
       <c r="C291" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12337,7 +12318,7 @@
         <v>888</v>
       </c>
       <c r="C292" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -12363,7 +12344,7 @@
         <v>888</v>
       </c>
       <c r="C293" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -12389,7 +12370,7 @@
         <v>888</v>
       </c>
       <c r="C294" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -12415,7 +12396,7 @@
         <v>888</v>
       </c>
       <c r="C295" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -12441,7 +12422,7 @@
         <v>888</v>
       </c>
       <c r="C296" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -12467,7 +12448,7 @@
         <v>888</v>
       </c>
       <c r="C297" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12493,7 +12474,7 @@
         <v>888</v>
       </c>
       <c r="C298" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -12519,7 +12500,7 @@
         <v>888</v>
       </c>
       <c r="C299" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -12545,7 +12526,7 @@
         <v>888</v>
       </c>
       <c r="C300" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -12571,7 +12552,7 @@
         <v>888</v>
       </c>
       <c r="C301" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -12597,7 +12578,7 @@
         <v>888</v>
       </c>
       <c r="C302" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -12623,7 +12604,7 @@
         <v>888</v>
       </c>
       <c r="C303" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -12649,7 +12630,7 @@
         <v>888</v>
       </c>
       <c r="C304" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -12675,7 +12656,7 @@
         <v>888</v>
       </c>
       <c r="C305" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -12701,7 +12682,7 @@
         <v>888</v>
       </c>
       <c r="C306" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -12727,7 +12708,7 @@
         <v>888</v>
       </c>
       <c r="C307" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -12753,7 +12734,7 @@
         <v>888</v>
       </c>
       <c r="C308" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -12779,7 +12760,7 @@
         <v>888</v>
       </c>
       <c r="C309" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -12805,7 +12786,7 @@
         <v>888</v>
       </c>
       <c r="C310" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -12831,7 +12812,7 @@
         <v>888</v>
       </c>
       <c r="C311" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -12857,7 +12838,7 @@
         <v>888</v>
       </c>
       <c r="C312" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -12883,7 +12864,7 @@
         <v>888</v>
       </c>
       <c r="C313" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -12909,7 +12890,7 @@
         <v>888</v>
       </c>
       <c r="C314" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -12935,7 +12916,7 @@
         <v>888</v>
       </c>
       <c r="C315" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -12961,7 +12942,7 @@
         <v>888</v>
       </c>
       <c r="C316" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -12987,7 +12968,7 @@
         <v>888</v>
       </c>
       <c r="C317" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -13013,7 +12994,7 @@
         <v>888</v>
       </c>
       <c r="C318" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -13039,7 +13020,7 @@
         <v>888</v>
       </c>
       <c r="C319" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -13065,7 +13046,7 @@
         <v>888</v>
       </c>
       <c r="C320" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -13091,7 +13072,7 @@
         <v>888</v>
       </c>
       <c r="C321" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -13117,7 +13098,7 @@
         <v>888</v>
       </c>
       <c r="C322" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -13143,7 +13124,7 @@
         <v>888</v>
       </c>
       <c r="C323" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -13169,7 +13150,7 @@
         <v>888</v>
       </c>
       <c r="C324" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -13195,7 +13176,7 @@
         <v>888</v>
       </c>
       <c r="C325" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -13221,7 +13202,7 @@
         <v>888</v>
       </c>
       <c r="C326" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -13247,7 +13228,7 @@
         <v>888</v>
       </c>
       <c r="C327" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -13273,7 +13254,7 @@
         <v>888</v>
       </c>
       <c r="C328" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -13299,7 +13280,7 @@
         <v>888</v>
       </c>
       <c r="C329" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -13325,7 +13306,7 @@
         <v>888</v>
       </c>
       <c r="C330" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -13351,7 +13332,7 @@
         <v>888</v>
       </c>
       <c r="C331" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -13377,7 +13358,7 @@
         <v>888</v>
       </c>
       <c r="C332" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -13403,7 +13384,7 @@
         <v>888</v>
       </c>
       <c r="C333" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -13429,7 +13410,7 @@
         <v>888</v>
       </c>
       <c r="C334" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -13455,7 +13436,7 @@
         <v>888</v>
       </c>
       <c r="C335" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -13481,7 +13462,7 @@
         <v>888</v>
       </c>
       <c r="C336" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -13507,7 +13488,7 @@
         <v>888</v>
       </c>
       <c r="C337" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -13533,7 +13514,7 @@
         <v>888</v>
       </c>
       <c r="C338" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -13559,7 +13540,7 @@
         <v>888</v>
       </c>
       <c r="C339" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -13585,7 +13566,7 @@
         <v>888</v>
       </c>
       <c r="C340" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -13611,7 +13592,7 @@
         <v>888</v>
       </c>
       <c r="C341" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -13637,7 +13618,7 @@
         <v>888</v>
       </c>
       <c r="C342" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -13663,7 +13644,7 @@
         <v>888</v>
       </c>
       <c r="C343" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -13689,7 +13670,7 @@
         <v>888</v>
       </c>
       <c r="C344" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -13715,7 +13696,7 @@
         <v>888</v>
       </c>
       <c r="C345" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -13741,7 +13722,7 @@
         <v>888</v>
       </c>
       <c r="C346" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -13767,7 +13748,7 @@
         <v>888</v>
       </c>
       <c r="C347" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -13793,7 +13774,7 @@
         <v>888</v>
       </c>
       <c r="C348" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -13819,7 +13800,7 @@
         <v>888</v>
       </c>
       <c r="C349" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -13845,7 +13826,7 @@
         <v>888</v>
       </c>
       <c r="C350" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -13871,7 +13852,7 @@
         <v>888</v>
       </c>
       <c r="C351" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -13897,7 +13878,7 @@
         <v>888</v>
       </c>
       <c r="C352" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -13923,7 +13904,7 @@
         <v>888</v>
       </c>
       <c r="C353" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -13949,7 +13930,7 @@
         <v>888</v>
       </c>
       <c r="C354" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -13975,7 +13956,7 @@
         <v>888</v>
       </c>
       <c r="C355" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -14001,7 +13982,7 @@
         <v>888</v>
       </c>
       <c r="C356" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -14027,7 +14008,7 @@
         <v>888</v>
       </c>
       <c r="C357" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -14053,7 +14034,7 @@
         <v>888</v>
       </c>
       <c r="C358" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -14079,7 +14060,7 @@
         <v>888</v>
       </c>
       <c r="C359" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -14105,7 +14086,7 @@
         <v>888</v>
       </c>
       <c r="C360" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -14131,7 +14112,7 @@
         <v>888</v>
       </c>
       <c r="C361" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -14157,7 +14138,7 @@
         <v>888</v>
       </c>
       <c r="C362" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -14183,7 +14164,7 @@
         <v>888</v>
       </c>
       <c r="C363" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -14209,7 +14190,7 @@
         <v>888</v>
       </c>
       <c r="C364" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -14235,7 +14216,7 @@
         <v>888</v>
       </c>
       <c r="C365" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -14261,7 +14242,7 @@
         <v>888</v>
       </c>
       <c r="C366" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -14287,7 +14268,7 @@
         <v>888</v>
       </c>
       <c r="C367" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -14313,7 +14294,7 @@
         <v>888</v>
       </c>
       <c r="C368" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -14339,7 +14320,7 @@
         <v>888</v>
       </c>
       <c r="C369" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -14365,7 +14346,7 @@
         <v>888</v>
       </c>
       <c r="C370" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -14391,7 +14372,7 @@
         <v>888</v>
       </c>
       <c r="C371" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -14417,7 +14398,7 @@
         <v>888</v>
       </c>
       <c r="C372" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -14443,7 +14424,7 @@
         <v>888</v>
       </c>
       <c r="C373" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -14469,7 +14450,7 @@
         <v>888</v>
       </c>
       <c r="C374" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -14495,7 +14476,7 @@
         <v>888</v>
       </c>
       <c r="C375" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -14521,7 +14502,7 @@
         <v>888</v>
       </c>
       <c r="C376" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -14547,7 +14528,7 @@
         <v>888</v>
       </c>
       <c r="C377" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -14573,7 +14554,7 @@
         <v>888</v>
       </c>
       <c r="C378" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -14599,7 +14580,7 @@
         <v>888</v>
       </c>
       <c r="C379" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -14625,7 +14606,7 @@
         <v>888</v>
       </c>
       <c r="C380" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -14651,7 +14632,7 @@
         <v>888</v>
       </c>
       <c r="C381" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -14677,7 +14658,7 @@
         <v>888</v>
       </c>
       <c r="C382" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -14703,7 +14684,7 @@
         <v>888</v>
       </c>
       <c r="C383" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -14729,7 +14710,7 @@
         <v>888</v>
       </c>
       <c r="C384" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -14755,7 +14736,7 @@
         <v>888</v>
       </c>
       <c r="C385" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -14781,7 +14762,7 @@
         <v>888</v>
       </c>
       <c r="C386" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -14807,7 +14788,7 @@
         <v>888</v>
       </c>
       <c r="C387" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -14833,7 +14814,7 @@
         <v>888</v>
       </c>
       <c r="C388" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -14859,7 +14840,7 @@
         <v>888</v>
       </c>
       <c r="C389" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -14885,7 +14866,7 @@
         <v>888</v>
       </c>
       <c r="C390" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -14911,7 +14892,7 @@
         <v>888</v>
       </c>
       <c r="C391" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -14937,7 +14918,7 @@
         <v>888</v>
       </c>
       <c r="C392" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -14963,7 +14944,7 @@
         <v>888</v>
       </c>
       <c r="C393" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -14989,7 +14970,7 @@
         <v>888</v>
       </c>
       <c r="C394" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -15015,7 +14996,7 @@
         <v>888</v>
       </c>
       <c r="C395" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -15041,7 +15022,7 @@
         <v>888</v>
       </c>
       <c r="C396" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -15067,7 +15048,7 @@
         <v>888</v>
       </c>
       <c r="C397" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -15093,7 +15074,7 @@
         <v>888</v>
       </c>
       <c r="C398" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -15119,7 +15100,7 @@
         <v>888</v>
       </c>
       <c r="C399" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -15145,7 +15126,7 @@
         <v>888</v>
       </c>
       <c r="C400" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -15171,7 +15152,7 @@
         <v>888</v>
       </c>
       <c r="C401" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -15197,7 +15178,7 @@
         <v>888</v>
       </c>
       <c r="C402" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -15223,7 +15204,7 @@
         <v>888</v>
       </c>
       <c r="C403" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -15249,7 +15230,7 @@
         <v>888</v>
       </c>
       <c r="C404" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -15275,7 +15256,7 @@
         <v>888</v>
       </c>
       <c r="C405" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -15301,7 +15282,7 @@
         <v>888</v>
       </c>
       <c r="C406" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -15327,7 +15308,7 @@
         <v>888</v>
       </c>
       <c r="C407" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -15353,7 +15334,7 @@
         <v>888</v>
       </c>
       <c r="C408" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -15379,7 +15360,7 @@
         <v>888</v>
       </c>
       <c r="C409" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -15405,7 +15386,7 @@
         <v>888</v>
       </c>
       <c r="C410" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -15431,7 +15412,7 @@
         <v>888</v>
       </c>
       <c r="C411" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -15457,7 +15438,7 @@
         <v>888</v>
       </c>
       <c r="C412" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -15483,7 +15464,7 @@
         <v>888</v>
       </c>
       <c r="C413" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -15509,7 +15490,7 @@
         <v>888</v>
       </c>
       <c r="C414" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -15535,7 +15516,7 @@
         <v>888</v>
       </c>
       <c r="C415" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -15561,7 +15542,7 @@
         <v>888</v>
       </c>
       <c r="C416" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -15587,7 +15568,7 @@
         <v>888</v>
       </c>
       <c r="C417" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -15613,7 +15594,7 @@
         <v>888</v>
       </c>
       <c r="C418" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -15639,7 +15620,7 @@
         <v>888</v>
       </c>
       <c r="C419" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D419">
         <v>0</v>
@@ -15665,7 +15646,7 @@
         <v>888</v>
       </c>
       <c r="C420" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -15691,7 +15672,7 @@
         <v>888</v>
       </c>
       <c r="C421" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -15717,7 +15698,7 @@
         <v>888</v>
       </c>
       <c r="C422" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -15743,7 +15724,7 @@
         <v>888</v>
       </c>
       <c r="C423" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -15769,7 +15750,7 @@
         <v>888</v>
       </c>
       <c r="C424" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -15795,7 +15776,7 @@
         <v>888</v>
       </c>
       <c r="C425" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -15821,7 +15802,7 @@
         <v>888</v>
       </c>
       <c r="C426" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -15847,7 +15828,7 @@
         <v>888</v>
       </c>
       <c r="C427" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -15873,7 +15854,7 @@
         <v>888</v>
       </c>
       <c r="C428" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -15899,7 +15880,7 @@
         <v>888</v>
       </c>
       <c r="C429" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -15925,7 +15906,7 @@
         <v>888</v>
       </c>
       <c r="C430" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -15951,7 +15932,7 @@
         <v>888</v>
       </c>
       <c r="C431" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -15977,7 +15958,7 @@
         <v>888</v>
       </c>
       <c r="C432" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -16003,7 +15984,7 @@
         <v>888</v>
       </c>
       <c r="C433" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -16029,7 +16010,7 @@
         <v>888</v>
       </c>
       <c r="C434" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -16055,7 +16036,7 @@
         <v>888</v>
       </c>
       <c r="C435" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -16081,7 +16062,7 @@
         <v>888</v>
       </c>
       <c r="C436" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -16107,7 +16088,7 @@
         <v>888</v>
       </c>
       <c r="C437" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -16133,7 +16114,7 @@
         <v>888</v>
       </c>
       <c r="C438" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -16159,7 +16140,7 @@
         <v>888</v>
       </c>
       <c r="C439" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -16185,7 +16166,7 @@
         <v>888</v>
       </c>
       <c r="C440" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -16211,7 +16192,7 @@
         <v>888</v>
       </c>
       <c r="C441" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -16237,7 +16218,7 @@
         <v>888</v>
       </c>
       <c r="C442" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -16263,7 +16244,7 @@
         <v>888</v>
       </c>
       <c r="C443" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -16289,7 +16270,7 @@
         <v>888</v>
       </c>
       <c r="C444" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -16315,7 +16296,7 @@
         <v>888</v>
       </c>
       <c r="C445" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -16341,7 +16322,7 @@
         <v>888</v>
       </c>
       <c r="C446" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -16367,7 +16348,7 @@
         <v>888</v>
       </c>
       <c r="C447" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -16393,7 +16374,7 @@
         <v>888</v>
       </c>
       <c r="C448" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -16419,7 +16400,7 @@
         <v>888</v>
       </c>
       <c r="C449" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -16445,7 +16426,7 @@
         <v>888</v>
       </c>
       <c r="C450" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -16471,7 +16452,7 @@
         <v>888</v>
       </c>
       <c r="C451" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -16497,7 +16478,7 @@
         <v>888</v>
       </c>
       <c r="C452" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -16523,7 +16504,7 @@
         <v>888</v>
       </c>
       <c r="C453" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -16549,7 +16530,7 @@
         <v>888</v>
       </c>
       <c r="C454" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -16575,7 +16556,7 @@
         <v>888</v>
       </c>
       <c r="C455" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -16601,7 +16582,7 @@
         <v>888</v>
       </c>
       <c r="C456" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -16627,7 +16608,7 @@
         <v>888</v>
       </c>
       <c r="C457" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -16653,7 +16634,7 @@
         <v>888</v>
       </c>
       <c r="C458" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -16679,7 +16660,7 @@
         <v>888</v>
       </c>
       <c r="C459" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -16705,7 +16686,7 @@
         <v>888</v>
       </c>
       <c r="C460" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -16731,7 +16712,7 @@
         <v>888</v>
       </c>
       <c r="C461" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -16757,7 +16738,7 @@
         <v>888</v>
       </c>
       <c r="C462" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -16783,7 +16764,7 @@
         <v>888</v>
       </c>
       <c r="C463" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -16809,7 +16790,7 @@
         <v>888</v>
       </c>
       <c r="C464" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -16835,7 +16816,7 @@
         <v>888</v>
       </c>
       <c r="C465" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -16861,7 +16842,7 @@
         <v>888</v>
       </c>
       <c r="C466" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -16887,7 +16868,7 @@
         <v>888</v>
       </c>
       <c r="C467" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -16913,7 +16894,7 @@
         <v>888</v>
       </c>
       <c r="C468" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -16939,7 +16920,7 @@
         <v>888</v>
       </c>
       <c r="C469" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -16965,7 +16946,7 @@
         <v>888</v>
       </c>
       <c r="C470" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -16991,7 +16972,7 @@
         <v>888</v>
       </c>
       <c r="C471" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -17017,7 +16998,7 @@
         <v>888</v>
       </c>
       <c r="C472" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -17043,7 +17024,7 @@
         <v>888</v>
       </c>
       <c r="C473" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -17069,7 +17050,7 @@
         <v>888</v>
       </c>
       <c r="C474" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -17095,7 +17076,7 @@
         <v>888</v>
       </c>
       <c r="C475" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -17121,7 +17102,7 @@
         <v>888</v>
       </c>
       <c r="C476" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -17147,7 +17128,7 @@
         <v>888</v>
       </c>
       <c r="C477" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -17173,7 +17154,7 @@
         <v>888</v>
       </c>
       <c r="C478" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -17199,7 +17180,7 @@
         <v>888</v>
       </c>
       <c r="C479" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -17225,7 +17206,7 @@
         <v>888</v>
       </c>
       <c r="C480" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -17251,7 +17232,7 @@
         <v>888</v>
       </c>
       <c r="C481" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -17277,7 +17258,7 @@
         <v>888</v>
       </c>
       <c r="C482" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -17303,7 +17284,7 @@
         <v>888</v>
       </c>
       <c r="C483" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -17329,7 +17310,7 @@
         <v>888</v>
       </c>
       <c r="C484" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -17355,7 +17336,7 @@
         <v>888</v>
       </c>
       <c r="C485" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -17375,13 +17356,13 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>87400278</v>
+        <v>87400280</v>
       </c>
       <c r="B486" t="s">
         <v>888</v>
       </c>
       <c r="C486" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -17401,13 +17382,13 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>87400279</v>
+        <v>87400281</v>
       </c>
       <c r="B487" t="s">
         <v>888</v>
       </c>
       <c r="C487" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -17427,13 +17408,13 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>87400280</v>
+        <v>87400282</v>
       </c>
       <c r="B488" t="s">
         <v>888</v>
       </c>
       <c r="C488" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -17453,13 +17434,13 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>87400281</v>
+        <v>87400283</v>
       </c>
       <c r="B489" t="s">
         <v>888</v>
       </c>
       <c r="C489" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -17479,13 +17460,13 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>87400282</v>
+        <v>87400284</v>
       </c>
       <c r="B490" t="s">
         <v>888</v>
       </c>
       <c r="C490" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -17505,13 +17486,13 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>87400283</v>
+        <v>87400285</v>
       </c>
       <c r="B491" t="s">
         <v>888</v>
       </c>
       <c r="C491" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -17531,13 +17512,13 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>87400284</v>
+        <v>87400286</v>
       </c>
       <c r="B492" t="s">
         <v>888</v>
       </c>
       <c r="C492" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -17557,13 +17538,13 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>87400285</v>
+        <v>87400287</v>
       </c>
       <c r="B493" t="s">
         <v>888</v>
       </c>
       <c r="C493" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -17583,13 +17564,13 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>87400286</v>
+        <v>87400288</v>
       </c>
       <c r="B494" t="s">
         <v>888</v>
       </c>
       <c r="C494" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -17609,13 +17590,13 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>87400287</v>
+        <v>87400289</v>
       </c>
       <c r="B495" t="s">
         <v>888</v>
       </c>
       <c r="C495" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -17635,13 +17616,13 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>87400288</v>
+        <v>87400290</v>
       </c>
       <c r="B496" t="s">
         <v>888</v>
       </c>
       <c r="C496" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -17661,13 +17642,13 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>87400289</v>
+        <v>87400291</v>
       </c>
       <c r="B497" t="s">
         <v>888</v>
       </c>
       <c r="C497" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -17687,13 +17668,13 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>87400290</v>
+        <v>87400292</v>
       </c>
       <c r="B498" t="s">
         <v>888</v>
       </c>
       <c r="C498" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -17713,13 +17694,13 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>87400291</v>
+        <v>87400293</v>
       </c>
       <c r="B499" t="s">
         <v>888</v>
       </c>
       <c r="C499" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -17739,13 +17720,13 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>87400292</v>
+        <v>87400294</v>
       </c>
       <c r="B500" t="s">
         <v>888</v>
       </c>
       <c r="C500" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -17765,13 +17746,13 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>87400293</v>
+        <v>87400295</v>
       </c>
       <c r="B501" t="s">
         <v>888</v>
       </c>
       <c r="C501" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -17791,13 +17772,13 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>87400294</v>
+        <v>87400296</v>
       </c>
       <c r="B502" t="s">
         <v>888</v>
       </c>
       <c r="C502" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -17817,13 +17798,13 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>87400295</v>
+        <v>87400297</v>
       </c>
       <c r="B503" t="s">
         <v>888</v>
       </c>
       <c r="C503" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -17843,13 +17824,13 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>87400296</v>
+        <v>87400298</v>
       </c>
       <c r="B504" t="s">
         <v>888</v>
       </c>
       <c r="C504" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -17869,13 +17850,13 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>87400297</v>
+        <v>87400299</v>
       </c>
       <c r="B505" t="s">
         <v>888</v>
       </c>
       <c r="C505" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -17895,13 +17876,13 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>87400298</v>
+        <v>87400300</v>
       </c>
       <c r="B506" t="s">
         <v>888</v>
       </c>
       <c r="C506" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -17921,13 +17902,13 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>87400299</v>
+        <v>87400301</v>
       </c>
       <c r="B507" t="s">
         <v>888</v>
       </c>
       <c r="C507" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -17947,13 +17928,13 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>87400300</v>
+        <v>87400302</v>
       </c>
       <c r="B508" t="s">
         <v>888</v>
       </c>
       <c r="C508" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -17973,13 +17954,13 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>87400301</v>
+        <v>87400303</v>
       </c>
       <c r="B509" t="s">
         <v>888</v>
       </c>
       <c r="C509" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -17999,13 +17980,13 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>87400302</v>
+        <v>87400304</v>
       </c>
       <c r="B510" t="s">
         <v>888</v>
       </c>
       <c r="C510" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -18025,13 +18006,13 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>87400303</v>
+        <v>87400305</v>
       </c>
       <c r="B511" t="s">
         <v>888</v>
       </c>
       <c r="C511" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -18051,13 +18032,13 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>87400304</v>
+        <v>87400306</v>
       </c>
       <c r="B512" t="s">
         <v>888</v>
       </c>
       <c r="C512" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -18077,13 +18058,13 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>87400305</v>
+        <v>87400307</v>
       </c>
       <c r="B513" t="s">
         <v>888</v>
       </c>
       <c r="C513" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -18103,13 +18084,13 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>87400306</v>
+        <v>87400308</v>
       </c>
       <c r="B514" t="s">
         <v>888</v>
       </c>
       <c r="C514" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -18129,13 +18110,13 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>87400307</v>
+        <v>87400309</v>
       </c>
       <c r="B515" t="s">
         <v>888</v>
       </c>
       <c r="C515" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -18155,13 +18136,13 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>87400308</v>
+        <v>87400310</v>
       </c>
       <c r="B516" t="s">
         <v>888</v>
       </c>
       <c r="C516" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -18181,13 +18162,13 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>87400309</v>
+        <v>87400311</v>
       </c>
       <c r="B517" t="s">
         <v>888</v>
       </c>
       <c r="C517" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -18207,13 +18188,13 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>87400310</v>
+        <v>87400312</v>
       </c>
       <c r="B518" t="s">
         <v>888</v>
       </c>
       <c r="C518" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -18233,13 +18214,13 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>87400311</v>
+        <v>87400313</v>
       </c>
       <c r="B519" t="s">
         <v>888</v>
       </c>
       <c r="C519" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -18259,13 +18240,13 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>87400312</v>
+        <v>87400314</v>
       </c>
       <c r="B520" t="s">
         <v>888</v>
       </c>
       <c r="C520" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -18285,13 +18266,13 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>87400313</v>
+        <v>87400315</v>
       </c>
       <c r="B521" t="s">
         <v>888</v>
       </c>
       <c r="C521" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -18311,13 +18292,13 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>87400314</v>
+        <v>87400318</v>
       </c>
       <c r="B522" t="s">
         <v>888</v>
       </c>
       <c r="C522" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -18337,13 +18318,13 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>87400315</v>
+        <v>87400319</v>
       </c>
       <c r="B523" t="s">
         <v>888</v>
       </c>
       <c r="C523" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -18363,13 +18344,13 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>87400316</v>
+        <v>87400320</v>
       </c>
       <c r="B524" t="s">
         <v>888</v>
       </c>
       <c r="C524" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -18389,13 +18370,13 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>87400317</v>
+        <v>87400321</v>
       </c>
       <c r="B525" t="s">
         <v>888</v>
       </c>
       <c r="C525" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -18415,13 +18396,13 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>87400318</v>
+        <v>87400322</v>
       </c>
       <c r="B526" t="s">
         <v>888</v>
       </c>
       <c r="C526" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -18441,13 +18422,13 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>87400319</v>
+        <v>87400323</v>
       </c>
       <c r="B527" t="s">
         <v>888</v>
       </c>
       <c r="C527" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -18467,13 +18448,13 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>87400320</v>
+        <v>87400324</v>
       </c>
       <c r="B528" t="s">
         <v>888</v>
       </c>
       <c r="C528" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -18493,13 +18474,13 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>87400321</v>
+        <v>87400325</v>
       </c>
       <c r="B529" t="s">
         <v>888</v>
       </c>
       <c r="C529" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -18519,13 +18500,13 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>87400322</v>
+        <v>87400326</v>
       </c>
       <c r="B530" t="s">
         <v>888</v>
       </c>
       <c r="C530" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D530">
         <v>0</v>
@@ -18545,13 +18526,13 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>87400323</v>
+        <v>87400327</v>
       </c>
       <c r="B531" t="s">
         <v>888</v>
       </c>
       <c r="C531" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -18571,13 +18552,13 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>87400324</v>
+        <v>87400328</v>
       </c>
       <c r="B532" t="s">
         <v>888</v>
       </c>
       <c r="C532" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -18597,13 +18578,13 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>87400325</v>
+        <v>87400329</v>
       </c>
       <c r="B533" t="s">
         <v>888</v>
       </c>
       <c r="C533" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -18623,13 +18604,13 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>87400326</v>
+        <v>87400330</v>
       </c>
       <c r="B534" t="s">
         <v>888</v>
       </c>
       <c r="C534" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D534">
         <v>0</v>
@@ -18649,13 +18630,13 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>87400327</v>
+        <v>87400331</v>
       </c>
       <c r="B535" t="s">
         <v>888</v>
       </c>
       <c r="C535" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -18675,13 +18656,13 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>87400328</v>
+        <v>87400332</v>
       </c>
       <c r="B536" t="s">
         <v>888</v>
       </c>
       <c r="C536" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -18701,13 +18682,13 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>87400329</v>
+        <v>87400333</v>
       </c>
       <c r="B537" t="s">
         <v>888</v>
       </c>
       <c r="C537" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -18727,13 +18708,13 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>87400330</v>
+        <v>87400334</v>
       </c>
       <c r="B538" t="s">
         <v>888</v>
       </c>
       <c r="C538" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -18753,13 +18734,13 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>87400331</v>
+        <v>87400335</v>
       </c>
       <c r="B539" t="s">
         <v>888</v>
       </c>
       <c r="C539" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D539">
         <v>0</v>
@@ -18779,13 +18760,13 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>87400332</v>
+        <v>87400336</v>
       </c>
       <c r="B540" t="s">
         <v>888</v>
       </c>
       <c r="C540" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -18805,13 +18786,13 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>87400333</v>
+        <v>87400337</v>
       </c>
       <c r="B541" t="s">
         <v>888</v>
       </c>
       <c r="C541" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -18831,13 +18812,13 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>87400334</v>
+        <v>87400338</v>
       </c>
       <c r="B542" t="s">
         <v>888</v>
       </c>
       <c r="C542" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D542">
         <v>0</v>
@@ -18857,13 +18838,13 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>87400335</v>
+        <v>87400339</v>
       </c>
       <c r="B543" t="s">
         <v>888</v>
       </c>
       <c r="C543" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D543">
         <v>0</v>
@@ -18883,13 +18864,13 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>87400336</v>
+        <v>87400340</v>
       </c>
       <c r="B544" t="s">
         <v>888</v>
       </c>
       <c r="C544" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D544">
         <v>0</v>
@@ -18909,13 +18890,13 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>87400337</v>
+        <v>87400341</v>
       </c>
       <c r="B545" t="s">
         <v>888</v>
       </c>
       <c r="C545" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -18935,13 +18916,13 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>87400338</v>
+        <v>87400342</v>
       </c>
       <c r="B546" t="s">
         <v>888</v>
       </c>
       <c r="C546" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -18961,13 +18942,13 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>87400339</v>
+        <v>87400343</v>
       </c>
       <c r="B547" t="s">
         <v>888</v>
       </c>
       <c r="C547" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D547">
         <v>0</v>
@@ -18987,13 +18968,13 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>87400340</v>
+        <v>87400344</v>
       </c>
       <c r="B548" t="s">
         <v>888</v>
       </c>
       <c r="C548" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -19013,13 +18994,13 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>87400341</v>
+        <v>87400345</v>
       </c>
       <c r="B549" t="s">
         <v>888</v>
       </c>
       <c r="C549" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D549">
         <v>0</v>
@@ -19039,13 +19020,13 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>87400342</v>
+        <v>87400346</v>
       </c>
       <c r="B550" t="s">
         <v>888</v>
       </c>
       <c r="C550" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -19065,13 +19046,13 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>87400343</v>
+        <v>87400347</v>
       </c>
       <c r="B551" t="s">
         <v>888</v>
       </c>
       <c r="C551" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -19091,13 +19072,13 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>87400344</v>
+        <v>87400348</v>
       </c>
       <c r="B552" t="s">
         <v>888</v>
       </c>
       <c r="C552" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -19117,13 +19098,13 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>87400345</v>
+        <v>87400349</v>
       </c>
       <c r="B553" t="s">
         <v>888</v>
       </c>
       <c r="C553" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D553">
         <v>0</v>
@@ -19143,13 +19124,13 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>87400346</v>
+        <v>87400350</v>
       </c>
       <c r="B554" t="s">
         <v>888</v>
       </c>
       <c r="C554" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -19169,13 +19150,13 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>87400347</v>
+        <v>87400351</v>
       </c>
       <c r="B555" t="s">
         <v>888</v>
       </c>
       <c r="C555" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D555">
         <v>0</v>
@@ -19195,13 +19176,13 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>87400348</v>
+        <v>87400352</v>
       </c>
       <c r="B556" t="s">
         <v>888</v>
       </c>
       <c r="C556" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D556">
         <v>0</v>
@@ -19221,13 +19202,13 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>87400349</v>
+        <v>87400353</v>
       </c>
       <c r="B557" t="s">
         <v>888</v>
       </c>
       <c r="C557" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -19247,13 +19228,13 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>87400350</v>
+        <v>87400354</v>
       </c>
       <c r="B558" t="s">
         <v>888</v>
       </c>
       <c r="C558" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -19273,13 +19254,13 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>87400351</v>
+        <v>87400355</v>
       </c>
       <c r="B559" t="s">
         <v>888</v>
       </c>
       <c r="C559" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D559">
         <v>0</v>
@@ -19299,13 +19280,13 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>87400352</v>
+        <v>87400356</v>
       </c>
       <c r="B560" t="s">
         <v>888</v>
       </c>
       <c r="C560" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D560">
         <v>0</v>
@@ -19325,13 +19306,13 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>87400353</v>
+        <v>87400357</v>
       </c>
       <c r="B561" t="s">
         <v>888</v>
       </c>
       <c r="C561" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D561">
         <v>0</v>
@@ -19351,13 +19332,13 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>87400354</v>
+        <v>87400358</v>
       </c>
       <c r="B562" t="s">
         <v>888</v>
       </c>
       <c r="C562" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D562">
         <v>0</v>
@@ -19377,13 +19358,13 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>87400355</v>
+        <v>87400359</v>
       </c>
       <c r="B563" t="s">
         <v>888</v>
       </c>
       <c r="C563" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D563">
         <v>0</v>
@@ -19403,13 +19384,13 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>87400356</v>
+        <v>87400360</v>
       </c>
       <c r="B564" t="s">
         <v>888</v>
       </c>
       <c r="C564" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D564">
         <v>0</v>
@@ -19429,13 +19410,13 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>87400357</v>
+        <v>87400361</v>
       </c>
       <c r="B565" t="s">
         <v>888</v>
       </c>
       <c r="C565" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D565">
         <v>0</v>
@@ -19455,13 +19436,13 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>87400358</v>
+        <v>87400362</v>
       </c>
       <c r="B566" t="s">
         <v>888</v>
       </c>
       <c r="C566" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D566">
         <v>0</v>
@@ -19481,13 +19462,13 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>87400359</v>
+        <v>87400363</v>
       </c>
       <c r="B567" t="s">
         <v>888</v>
       </c>
       <c r="C567" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D567">
         <v>0</v>
@@ -19507,13 +19488,13 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>87400360</v>
+        <v>87400364</v>
       </c>
       <c r="B568" t="s">
         <v>888</v>
       </c>
       <c r="C568" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -19533,13 +19514,13 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>87400361</v>
+        <v>87400365</v>
       </c>
       <c r="B569" t="s">
         <v>888</v>
       </c>
       <c r="C569" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D569">
         <v>0</v>
@@ -19559,13 +19540,13 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>87400362</v>
+        <v>87400366</v>
       </c>
       <c r="B570" t="s">
         <v>888</v>
       </c>
       <c r="C570" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D570">
         <v>0</v>
@@ -19585,13 +19566,13 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>87400363</v>
+        <v>87400367</v>
       </c>
       <c r="B571" t="s">
         <v>888</v>
       </c>
       <c r="C571" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -19611,13 +19592,13 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>87400364</v>
+        <v>87400368</v>
       </c>
       <c r="B572" t="s">
         <v>888</v>
       </c>
       <c r="C572" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D572">
         <v>0</v>
@@ -19637,13 +19618,13 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>87400365</v>
+        <v>87400369</v>
       </c>
       <c r="B573" t="s">
         <v>888</v>
       </c>
       <c r="C573" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D573">
         <v>0</v>
@@ -19663,13 +19644,13 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>87400366</v>
+        <v>87400370</v>
       </c>
       <c r="B574" t="s">
         <v>888</v>
       </c>
       <c r="C574" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -19689,13 +19670,13 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>87400367</v>
+        <v>87400371</v>
       </c>
       <c r="B575" t="s">
         <v>888</v>
       </c>
       <c r="C575" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -19715,13 +19696,13 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>87400368</v>
+        <v>87400372</v>
       </c>
       <c r="B576" t="s">
         <v>888</v>
       </c>
       <c r="C576" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -19741,13 +19722,13 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>87400369</v>
+        <v>87400373</v>
       </c>
       <c r="B577" t="s">
         <v>888</v>
       </c>
       <c r="C577" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -19756,7 +19737,7 @@
         <v>110</v>
       </c>
       <c r="F577" t="s">
-        <v>1233</v>
+        <v>69</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -19767,13 +19748,13 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>87400370</v>
+        <v>87400377</v>
       </c>
       <c r="B578" t="s">
         <v>888</v>
       </c>
       <c r="C578" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -19782,7 +19763,7 @@
         <v>110</v>
       </c>
       <c r="F578" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G578">
         <v>0</v>
@@ -19793,13 +19774,13 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>87400371</v>
+        <v>87400378</v>
       </c>
       <c r="B579" t="s">
         <v>888</v>
       </c>
       <c r="C579" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D579">
         <v>0</v>
@@ -19808,7 +19789,7 @@
         <v>110</v>
       </c>
       <c r="F579" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -19819,13 +19800,13 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>87400372</v>
+        <v>87400379</v>
       </c>
       <c r="B580" t="s">
         <v>888</v>
       </c>
       <c r="C580" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -19834,7 +19815,7 @@
         <v>110</v>
       </c>
       <c r="F580" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -19845,13 +19826,13 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>87400373</v>
+        <v>87400380</v>
       </c>
       <c r="B581" t="s">
         <v>888</v>
       </c>
       <c r="C581" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -19860,7 +19841,7 @@
         <v>110</v>
       </c>
       <c r="F581" t="s">
-        <v>69</v>
+        <v>1236</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -19871,13 +19852,13 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>87400374</v>
+        <v>87400381</v>
       </c>
       <c r="B582" t="s">
         <v>888</v>
       </c>
       <c r="C582" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D582">
         <v>0</v>
@@ -19897,13 +19878,13 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>87400375</v>
+        <v>87400382</v>
       </c>
       <c r="B583" t="s">
         <v>888</v>
       </c>
       <c r="C583" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -19923,13 +19904,13 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>87400376</v>
+        <v>87400383</v>
       </c>
       <c r="B584" t="s">
         <v>888</v>
       </c>
       <c r="C584" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D584">
         <v>0</v>
@@ -19949,13 +19930,13 @@
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>87400377</v>
+        <v>87400384</v>
       </c>
       <c r="B585" t="s">
         <v>888</v>
       </c>
       <c r="C585" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -19975,13 +19956,13 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>87400378</v>
+        <v>87400385</v>
       </c>
       <c r="B586" t="s">
         <v>888</v>
       </c>
       <c r="C586" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -20001,13 +19982,13 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>87400379</v>
+        <v>87400386</v>
       </c>
       <c r="B587" t="s">
         <v>888</v>
       </c>
       <c r="C587" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D587">
         <v>0</v>
@@ -20027,13 +20008,13 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>87400380</v>
+        <v>87400387</v>
       </c>
       <c r="B588" t="s">
         <v>888</v>
       </c>
       <c r="C588" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -20053,13 +20034,13 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>87400381</v>
+        <v>87400388</v>
       </c>
       <c r="B589" t="s">
         <v>888</v>
       </c>
       <c r="C589" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D589">
         <v>0</v>
@@ -20079,13 +20060,13 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>87400382</v>
+        <v>87400389</v>
       </c>
       <c r="B590" t="s">
         <v>888</v>
       </c>
       <c r="C590" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -20105,13 +20086,13 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>87400383</v>
+        <v>87400390</v>
       </c>
       <c r="B591" t="s">
         <v>888</v>
       </c>
       <c r="C591" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -20131,13 +20112,13 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>87400384</v>
+        <v>87400391</v>
       </c>
       <c r="B592" t="s">
         <v>888</v>
       </c>
       <c r="C592" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -20157,13 +20138,13 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>87400385</v>
+        <v>87400392</v>
       </c>
       <c r="B593" t="s">
         <v>888</v>
       </c>
       <c r="C593" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -20183,13 +20164,13 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>87400386</v>
+        <v>87400393</v>
       </c>
       <c r="B594" t="s">
         <v>888</v>
       </c>
       <c r="C594" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -20209,13 +20190,13 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>87400387</v>
+        <v>87400394</v>
       </c>
       <c r="B595" t="s">
         <v>888</v>
       </c>
       <c r="C595" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -20235,13 +20216,13 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>87400388</v>
+        <v>87400395</v>
       </c>
       <c r="B596" t="s">
         <v>888</v>
       </c>
       <c r="C596" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -20261,13 +20242,13 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>87400389</v>
+        <v>87400396</v>
       </c>
       <c r="B597" t="s">
         <v>888</v>
       </c>
       <c r="C597" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D597">
         <v>0</v>
@@ -20287,13 +20268,13 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>87400390</v>
+        <v>87400397</v>
       </c>
       <c r="B598" t="s">
         <v>888</v>
       </c>
       <c r="C598" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -20313,13 +20294,13 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>87400391</v>
+        <v>87400398</v>
       </c>
       <c r="B599" t="s">
         <v>888</v>
       </c>
       <c r="C599" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -20339,13 +20320,13 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>87400392</v>
+        <v>87400399</v>
       </c>
       <c r="B600" t="s">
         <v>888</v>
       </c>
       <c r="C600" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -20365,13 +20346,13 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>87400393</v>
+        <v>87400400</v>
       </c>
       <c r="B601" t="s">
         <v>888</v>
       </c>
       <c r="C601" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -20391,13 +20372,13 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>87400394</v>
+        <v>87400401</v>
       </c>
       <c r="B602" t="s">
         <v>888</v>
       </c>
       <c r="C602" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -20417,13 +20398,13 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>87400395</v>
+        <v>87400402</v>
       </c>
       <c r="B603" t="s">
         <v>888</v>
       </c>
       <c r="C603" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -20443,13 +20424,13 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>87400396</v>
+        <v>87400403</v>
       </c>
       <c r="B604" t="s">
         <v>888</v>
       </c>
       <c r="C604" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D604">
         <v>0</v>
@@ -20469,13 +20450,13 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>87400397</v>
+        <v>87400404</v>
       </c>
       <c r="B605" t="s">
         <v>888</v>
       </c>
       <c r="C605" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -20484,7 +20465,7 @@
         <v>110</v>
       </c>
       <c r="F605" t="s">
-        <v>1260</v>
+        <v>76</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -20495,13 +20476,13 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>87400398</v>
+        <v>87400405</v>
       </c>
       <c r="B606" t="s">
         <v>888</v>
       </c>
       <c r="C606" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -20510,7 +20491,7 @@
         <v>110</v>
       </c>
       <c r="F606" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -20521,13 +20502,13 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>87400399</v>
+        <v>87400406</v>
       </c>
       <c r="B607" t="s">
         <v>888</v>
       </c>
       <c r="C607" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -20536,7 +20517,7 @@
         <v>110</v>
       </c>
       <c r="F607" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -20547,13 +20528,13 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>87400400</v>
+        <v>87400407</v>
       </c>
       <c r="B608" t="s">
         <v>888</v>
       </c>
       <c r="C608" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -20562,7 +20543,7 @@
         <v>110</v>
       </c>
       <c r="F608" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -20573,13 +20554,13 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>87400401</v>
+        <v>87400408</v>
       </c>
       <c r="B609" t="s">
         <v>888</v>
       </c>
       <c r="C609" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D609">
         <v>0</v>
@@ -20588,7 +20569,7 @@
         <v>110</v>
       </c>
       <c r="F609" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -20599,13 +20580,13 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A610">
-        <v>87400402</v>
+        <v>87400409</v>
       </c>
       <c r="B610" t="s">
         <v>888</v>
       </c>
       <c r="C610" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -20614,7 +20595,7 @@
         <v>110</v>
       </c>
       <c r="F610" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -20625,13 +20606,13 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A611">
-        <v>87400403</v>
+        <v>87400410</v>
       </c>
       <c r="B611" t="s">
         <v>888</v>
       </c>
       <c r="C611" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -20640,7 +20621,7 @@
         <v>110</v>
       </c>
       <c r="F611" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -20651,13 +20632,13 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A612">
-        <v>87400404</v>
+        <v>87400411</v>
       </c>
       <c r="B612" t="s">
         <v>888</v>
       </c>
       <c r="C612" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D612">
         <v>0</v>
@@ -20666,7 +20647,7 @@
         <v>110</v>
       </c>
       <c r="F612" t="s">
-        <v>76</v>
+        <v>1266</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -20677,13 +20658,13 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A613">
-        <v>87400405</v>
+        <v>87400412</v>
       </c>
       <c r="B613" t="s">
         <v>888</v>
       </c>
       <c r="C613" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -20703,13 +20684,13 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A614">
-        <v>87400406</v>
+        <v>87400413</v>
       </c>
       <c r="B614" t="s">
         <v>888</v>
       </c>
       <c r="C614" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -20729,13 +20710,13 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A615">
-        <v>87400407</v>
+        <v>87400414</v>
       </c>
       <c r="B615" t="s">
         <v>888</v>
       </c>
       <c r="C615" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -20755,13 +20736,13 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A616">
-        <v>87400408</v>
+        <v>87400415</v>
       </c>
       <c r="B616" t="s">
         <v>888</v>
       </c>
       <c r="C616" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -20781,13 +20762,13 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A617">
-        <v>87400409</v>
+        <v>87400416</v>
       </c>
       <c r="B617" t="s">
         <v>888</v>
       </c>
       <c r="C617" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -20807,13 +20788,13 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A618">
-        <v>87400410</v>
+        <v>87400417</v>
       </c>
       <c r="B618" t="s">
         <v>888</v>
       </c>
       <c r="C618" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -20833,13 +20814,13 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A619">
-        <v>87400411</v>
+        <v>87400418</v>
       </c>
       <c r="B619" t="s">
         <v>888</v>
       </c>
       <c r="C619" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D619">
         <v>0</v>
@@ -20859,13 +20840,13 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A620">
-        <v>87400412</v>
+        <v>87400419</v>
       </c>
       <c r="B620" t="s">
         <v>888</v>
       </c>
       <c r="C620" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -20885,13 +20866,13 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A621">
-        <v>87400413</v>
+        <v>87400420</v>
       </c>
       <c r="B621" t="s">
         <v>888</v>
       </c>
       <c r="C621" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D621">
         <v>0</v>
@@ -20911,13 +20892,13 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A622">
-        <v>87400414</v>
+        <v>87400421</v>
       </c>
       <c r="B622" t="s">
         <v>888</v>
       </c>
       <c r="C622" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D622">
         <v>0</v>
@@ -20937,13 +20918,13 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A623">
-        <v>87400415</v>
+        <v>87400422</v>
       </c>
       <c r="B623" t="s">
         <v>888</v>
       </c>
       <c r="C623" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -20963,13 +20944,13 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A624">
-        <v>87400416</v>
+        <v>87400423</v>
       </c>
       <c r="B624" t="s">
         <v>888</v>
       </c>
       <c r="C624" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -20989,13 +20970,13 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A625">
-        <v>87400417</v>
+        <v>87400426</v>
       </c>
       <c r="B625" t="s">
         <v>888</v>
       </c>
       <c r="C625" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D625">
         <v>0</v>
@@ -21015,13 +20996,13 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A626">
-        <v>87400418</v>
+        <v>87400427</v>
       </c>
       <c r="B626" t="s">
         <v>888</v>
       </c>
       <c r="C626" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D626">
         <v>0</v>
@@ -21041,13 +21022,13 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A627">
-        <v>87400419</v>
+        <v>87400428</v>
       </c>
       <c r="B627" t="s">
         <v>888</v>
       </c>
       <c r="C627" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D627">
         <v>0</v>
@@ -21067,13 +21048,13 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A628">
-        <v>87400420</v>
+        <v>87400429</v>
       </c>
       <c r="B628" t="s">
         <v>888</v>
       </c>
       <c r="C628" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -21093,13 +21074,13 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A629">
-        <v>87400421</v>
+        <v>87400430</v>
       </c>
       <c r="B629" t="s">
         <v>888</v>
       </c>
       <c r="C629" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -21119,13 +21100,13 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A630">
-        <v>87400422</v>
+        <v>87400431</v>
       </c>
       <c r="B630" t="s">
         <v>888</v>
       </c>
       <c r="C630" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -21145,13 +21126,13 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A631">
-        <v>87400423</v>
+        <v>87400432</v>
       </c>
       <c r="B631" t="s">
         <v>888</v>
       </c>
       <c r="C631" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -21171,13 +21152,13 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A632">
-        <v>87400424</v>
+        <v>87400433</v>
       </c>
       <c r="B632" t="s">
         <v>888</v>
       </c>
       <c r="C632" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -21197,13 +21178,13 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A633">
-        <v>87400425</v>
+        <v>87400434</v>
       </c>
       <c r="B633" t="s">
         <v>888</v>
       </c>
       <c r="C633" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -21223,13 +21204,13 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A634">
-        <v>87400426</v>
+        <v>87400435</v>
       </c>
       <c r="B634" t="s">
         <v>888</v>
       </c>
       <c r="C634" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -21249,13 +21230,13 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A635">
-        <v>87400427</v>
+        <v>87400436</v>
       </c>
       <c r="B635" t="s">
         <v>888</v>
       </c>
       <c r="C635" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -21275,13 +21256,13 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A636">
-        <v>87400428</v>
+        <v>87400437</v>
       </c>
       <c r="B636" t="s">
         <v>888</v>
       </c>
       <c r="C636" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -21301,13 +21282,13 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A637">
-        <v>87400429</v>
+        <v>87400438</v>
       </c>
       <c r="B637" t="s">
         <v>888</v>
       </c>
       <c r="C637" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -21327,13 +21308,13 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A638">
-        <v>87400430</v>
+        <v>87400439</v>
       </c>
       <c r="B638" t="s">
         <v>888</v>
       </c>
       <c r="C638" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -21353,13 +21334,13 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A639">
-        <v>87400431</v>
+        <v>87400440</v>
       </c>
       <c r="B639" t="s">
         <v>888</v>
       </c>
       <c r="C639" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -21379,13 +21360,13 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A640">
-        <v>87400432</v>
+        <v>87400441</v>
       </c>
       <c r="B640" t="s">
         <v>888</v>
       </c>
       <c r="C640" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -21405,13 +21386,13 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A641">
-        <v>87400433</v>
+        <v>87400442</v>
       </c>
       <c r="B641" t="s">
         <v>888</v>
       </c>
       <c r="C641" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -21431,13 +21412,13 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A642">
-        <v>87400434</v>
+        <v>87400443</v>
       </c>
       <c r="B642" t="s">
         <v>888</v>
       </c>
       <c r="C642" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -21457,13 +21438,13 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A643">
-        <v>87400435</v>
+        <v>87400444</v>
       </c>
       <c r="B643" t="s">
         <v>888</v>
       </c>
       <c r="C643" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -21483,13 +21464,13 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A644">
-        <v>87400436</v>
+        <v>87400445</v>
       </c>
       <c r="B644" t="s">
         <v>888</v>
       </c>
       <c r="C644" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -21509,13 +21490,13 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A645">
-        <v>87400437</v>
+        <v>87400446</v>
       </c>
       <c r="B645" t="s">
         <v>888</v>
       </c>
       <c r="C645" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -21535,13 +21516,13 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A646">
-        <v>87400438</v>
+        <v>87400447</v>
       </c>
       <c r="B646" t="s">
         <v>888</v>
       </c>
       <c r="C646" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -21561,13 +21542,13 @@
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A647">
-        <v>87400439</v>
+        <v>87400448</v>
       </c>
       <c r="B647" t="s">
         <v>888</v>
       </c>
       <c r="C647" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -21587,13 +21568,13 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A648">
-        <v>87400440</v>
+        <v>87400449</v>
       </c>
       <c r="B648" t="s">
         <v>888</v>
       </c>
       <c r="C648" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -21613,13 +21594,13 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>87400441</v>
+        <v>87400450</v>
       </c>
       <c r="B649" t="s">
         <v>888</v>
       </c>
       <c r="C649" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -21639,13 +21620,13 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A650">
-        <v>87400442</v>
+        <v>87400451</v>
       </c>
       <c r="B650" t="s">
         <v>888</v>
       </c>
       <c r="C650" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -21665,13 +21646,13 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A651">
-        <v>87400443</v>
+        <v>87400452</v>
       </c>
       <c r="B651" t="s">
         <v>888</v>
       </c>
       <c r="C651" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -21691,13 +21672,13 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A652">
-        <v>87400444</v>
+        <v>87400453</v>
       </c>
       <c r="B652" t="s">
         <v>888</v>
       </c>
       <c r="C652" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -21717,13 +21698,13 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>87400445</v>
+        <v>87400454</v>
       </c>
       <c r="B653" t="s">
         <v>888</v>
       </c>
       <c r="C653" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -21743,13 +21724,13 @@
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>87400446</v>
+        <v>87400455</v>
       </c>
       <c r="B654" t="s">
         <v>888</v>
       </c>
       <c r="C654" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -21769,13 +21750,13 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A655">
-        <v>87400447</v>
+        <v>87400456</v>
       </c>
       <c r="B655" t="s">
         <v>888</v>
       </c>
       <c r="C655" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D655">
         <v>0</v>
@@ -21795,13 +21776,13 @@
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>87400448</v>
+        <v>87400457</v>
       </c>
       <c r="B656" t="s">
         <v>888</v>
       </c>
       <c r="C656" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -21821,13 +21802,13 @@
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A657">
-        <v>87400449</v>
+        <v>87400458</v>
       </c>
       <c r="B657" t="s">
         <v>888</v>
       </c>
       <c r="C657" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -21847,13 +21828,13 @@
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A658">
-        <v>87400450</v>
+        <v>87400459</v>
       </c>
       <c r="B658" t="s">
         <v>888</v>
       </c>
       <c r="C658" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -21873,13 +21854,13 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A659">
-        <v>87400451</v>
+        <v>87400460</v>
       </c>
       <c r="B659" t="s">
         <v>888</v>
       </c>
       <c r="C659" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -21899,13 +21880,13 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A660">
-        <v>87400452</v>
+        <v>87400461</v>
       </c>
       <c r="B660" t="s">
         <v>888</v>
       </c>
       <c r="C660" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -21925,13 +21906,13 @@
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A661">
-        <v>87400453</v>
+        <v>87400462</v>
       </c>
       <c r="B661" t="s">
         <v>888</v>
       </c>
       <c r="C661" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -21951,13 +21932,13 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A662">
-        <v>87400454</v>
+        <v>87400463</v>
       </c>
       <c r="B662" t="s">
         <v>888</v>
       </c>
       <c r="C662" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -21977,13 +21958,13 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A663">
-        <v>87400455</v>
+        <v>87400464</v>
       </c>
       <c r="B663" t="s">
         <v>888</v>
       </c>
       <c r="C663" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -22003,13 +21984,13 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A664">
-        <v>87400456</v>
+        <v>87400465</v>
       </c>
       <c r="B664" t="s">
         <v>888</v>
       </c>
       <c r="C664" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -22029,13 +22010,13 @@
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A665">
-        <v>87400457</v>
+        <v>87400466</v>
       </c>
       <c r="B665" t="s">
         <v>888</v>
       </c>
       <c r="C665" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D665">
         <v>0</v>
@@ -22055,13 +22036,13 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A666">
-        <v>87400458</v>
+        <v>87400467</v>
       </c>
       <c r="B666" t="s">
         <v>888</v>
       </c>
       <c r="C666" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -22081,13 +22062,13 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A667">
-        <v>87400459</v>
+        <v>87400468</v>
       </c>
       <c r="B667" t="s">
         <v>888</v>
       </c>
       <c r="C667" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -22107,13 +22088,13 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A668">
-        <v>87400460</v>
+        <v>87400469</v>
       </c>
       <c r="B668" t="s">
         <v>888</v>
       </c>
       <c r="C668" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -22133,13 +22114,13 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A669">
-        <v>87400461</v>
+        <v>87400470</v>
       </c>
       <c r="B669" t="s">
         <v>888</v>
       </c>
       <c r="C669" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -22148,7 +22129,7 @@
         <v>110</v>
       </c>
       <c r="F669" t="s">
-        <v>1323</v>
+        <v>111</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -22159,13 +22140,13 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A670">
-        <v>87400462</v>
+        <v>87400471</v>
       </c>
       <c r="B670" t="s">
         <v>888</v>
       </c>
       <c r="C670" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D670">
         <v>0</v>
@@ -22174,7 +22155,7 @@
         <v>110</v>
       </c>
       <c r="F670" t="s">
-        <v>1324</v>
+        <v>114</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -22185,13 +22166,13 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A671">
-        <v>87400463</v>
+        <v>87400472</v>
       </c>
       <c r="B671" t="s">
         <v>888</v>
       </c>
       <c r="C671" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -22200,7 +22181,7 @@
         <v>110</v>
       </c>
       <c r="F671" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -22211,13 +22192,13 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A672">
-        <v>87400464</v>
+        <v>87400473</v>
       </c>
       <c r="B672" t="s">
         <v>888</v>
       </c>
       <c r="C672" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -22226,7 +22207,7 @@
         <v>110</v>
       </c>
       <c r="F672" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -22237,13 +22218,13 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A673">
-        <v>87400465</v>
+        <v>87400474</v>
       </c>
       <c r="B673" t="s">
         <v>888</v>
       </c>
       <c r="C673" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -22252,7 +22233,7 @@
         <v>110</v>
       </c>
       <c r="F673" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -22263,13 +22244,13 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A674">
-        <v>87400466</v>
+        <v>87400475</v>
       </c>
       <c r="B674" t="s">
         <v>888</v>
       </c>
       <c r="C674" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D674">
         <v>0</v>
@@ -22278,7 +22259,7 @@
         <v>110</v>
       </c>
       <c r="F674" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G674">
         <v>0</v>
@@ -22289,13 +22270,13 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A675">
-        <v>87400467</v>
+        <v>87400476</v>
       </c>
       <c r="B675" t="s">
         <v>888</v>
       </c>
       <c r="C675" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D675">
         <v>0</v>
@@ -22304,7 +22285,7 @@
         <v>110</v>
       </c>
       <c r="F675" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -22315,13 +22296,13 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A676">
-        <v>87400468</v>
+        <v>87400477</v>
       </c>
       <c r="B676" t="s">
         <v>888</v>
       </c>
       <c r="C676" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -22330,7 +22311,7 @@
         <v>110</v>
       </c>
       <c r="F676" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G676">
         <v>0</v>
@@ -22341,13 +22322,13 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A677">
-        <v>87400469</v>
+        <v>87400478</v>
       </c>
       <c r="B677" t="s">
         <v>888</v>
       </c>
       <c r="C677" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -22356,7 +22337,7 @@
         <v>110</v>
       </c>
       <c r="F677" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -22367,13 +22348,13 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A678">
-        <v>87400470</v>
+        <v>87400479</v>
       </c>
       <c r="B678" t="s">
         <v>888</v>
       </c>
       <c r="C678" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -22382,7 +22363,7 @@
         <v>110</v>
       </c>
       <c r="F678" t="s">
-        <v>111</v>
+        <v>1330</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -22393,13 +22374,13 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A679">
-        <v>87400471</v>
+        <v>87400480</v>
       </c>
       <c r="B679" t="s">
         <v>888</v>
       </c>
       <c r="C679" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -22408,7 +22389,7 @@
         <v>110</v>
       </c>
       <c r="F679" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -22419,13 +22400,13 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A680">
-        <v>87400472</v>
+        <v>87400481</v>
       </c>
       <c r="B680" t="s">
         <v>888</v>
       </c>
       <c r="C680" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D680">
         <v>0</v>
@@ -22434,7 +22415,7 @@
         <v>110</v>
       </c>
       <c r="F680" t="s">
-        <v>1332</v>
+        <v>270</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -22445,13 +22426,13 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A681">
-        <v>87400473</v>
+        <v>87400482</v>
       </c>
       <c r="B681" t="s">
         <v>888</v>
       </c>
       <c r="C681" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -22460,7 +22441,7 @@
         <v>110</v>
       </c>
       <c r="F681" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -22471,13 +22452,13 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A682">
-        <v>87400474</v>
+        <v>87400483</v>
       </c>
       <c r="B682" t="s">
         <v>888</v>
       </c>
       <c r="C682" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -22486,7 +22467,7 @@
         <v>110</v>
       </c>
       <c r="F682" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -22497,13 +22478,13 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A683">
-        <v>87400475</v>
+        <v>87400484</v>
       </c>
       <c r="B683" t="s">
         <v>888</v>
       </c>
       <c r="C683" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -22512,7 +22493,7 @@
         <v>110</v>
       </c>
       <c r="F683" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -22523,13 +22504,13 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A684">
-        <v>87400476</v>
+        <v>87400485</v>
       </c>
       <c r="B684" t="s">
         <v>888</v>
       </c>
       <c r="C684" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -22538,7 +22519,7 @@
         <v>110</v>
       </c>
       <c r="F684" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G684">
         <v>0</v>
@@ -22549,13 +22530,13 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A685">
-        <v>87400477</v>
+        <v>87400486</v>
       </c>
       <c r="B685" t="s">
         <v>888</v>
       </c>
       <c r="C685" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D685">
         <v>0</v>
@@ -22564,7 +22545,7 @@
         <v>110</v>
       </c>
       <c r="F685" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -22575,13 +22556,13 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A686">
-        <v>87400478</v>
+        <v>87400487</v>
       </c>
       <c r="B686" t="s">
         <v>888</v>
       </c>
       <c r="C686" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D686">
         <v>0</v>
@@ -22590,7 +22571,7 @@
         <v>110</v>
       </c>
       <c r="F686" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -22601,13 +22582,13 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A687">
-        <v>87400479</v>
+        <v>87400488</v>
       </c>
       <c r="B687" t="s">
         <v>888</v>
       </c>
       <c r="C687" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -22616,7 +22597,7 @@
         <v>110</v>
       </c>
       <c r="F687" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -22627,13 +22608,13 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A688">
-        <v>87400480</v>
+        <v>87400489</v>
       </c>
       <c r="B688" t="s">
         <v>888</v>
       </c>
       <c r="C688" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D688">
         <v>0</v>
@@ -22642,7 +22623,7 @@
         <v>110</v>
       </c>
       <c r="F688" t="s">
-        <v>268</v>
+        <v>1338</v>
       </c>
       <c r="G688">
         <v>0</v>
@@ -22653,13 +22634,13 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A689">
-        <v>87400481</v>
+        <v>87400490</v>
       </c>
       <c r="B689" t="s">
         <v>888</v>
       </c>
       <c r="C689" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D689">
         <v>0</v>
@@ -22668,7 +22649,7 @@
         <v>110</v>
       </c>
       <c r="F689" t="s">
-        <v>270</v>
+        <v>1339</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -22679,13 +22660,13 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A690">
-        <v>87400482</v>
+        <v>87400491</v>
       </c>
       <c r="B690" t="s">
         <v>888</v>
       </c>
       <c r="C690" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D690">
         <v>0</v>
@@ -22705,13 +22686,13 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A691">
-        <v>87400483</v>
+        <v>87400492</v>
       </c>
       <c r="B691" t="s">
         <v>888</v>
       </c>
       <c r="C691" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D691">
         <v>0</v>
@@ -22731,13 +22712,13 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A692">
-        <v>87400484</v>
+        <v>87400493</v>
       </c>
       <c r="B692" t="s">
         <v>888</v>
       </c>
       <c r="C692" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D692">
         <v>0</v>
@@ -22757,13 +22738,13 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A693">
-        <v>87400485</v>
+        <v>87400494</v>
       </c>
       <c r="B693" t="s">
         <v>888</v>
       </c>
       <c r="C693" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -22783,13 +22764,13 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A694">
-        <v>87400486</v>
+        <v>87400495</v>
       </c>
       <c r="B694" t="s">
         <v>888</v>
       </c>
       <c r="C694" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D694">
         <v>0</v>
@@ -22798,7 +22779,7 @@
         <v>110</v>
       </c>
       <c r="F694" t="s">
-        <v>1344</v>
+        <v>407</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -22809,13 +22790,13 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A695">
-        <v>87400487</v>
+        <v>87400496</v>
       </c>
       <c r="B695" t="s">
         <v>888</v>
       </c>
       <c r="C695" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D695">
         <v>0</v>
@@ -22824,7 +22805,7 @@
         <v>110</v>
       </c>
       <c r="F695" t="s">
-        <v>1345</v>
+        <v>409</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -22835,13 +22816,13 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A696">
-        <v>87400488</v>
+        <v>87400497</v>
       </c>
       <c r="B696" t="s">
         <v>888</v>
       </c>
       <c r="C696" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D696">
         <v>0</v>
@@ -22850,7 +22831,7 @@
         <v>110</v>
       </c>
       <c r="F696" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G696">
         <v>0</v>
@@ -22861,13 +22842,13 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A697">
-        <v>87400489</v>
+        <v>87400498</v>
       </c>
       <c r="B697" t="s">
         <v>888</v>
       </c>
       <c r="C697" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D697">
         <v>0</v>
@@ -22876,7 +22857,7 @@
         <v>110</v>
       </c>
       <c r="F697" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -22887,13 +22868,13 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>87400490</v>
+        <v>87400499</v>
       </c>
       <c r="B698" t="s">
         <v>888</v>
       </c>
       <c r="C698" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -22902,7 +22883,7 @@
         <v>110</v>
       </c>
       <c r="F698" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G698">
         <v>0</v>
@@ -22913,13 +22894,13 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A699">
-        <v>87400491</v>
+        <v>87400500</v>
       </c>
       <c r="B699" t="s">
         <v>888</v>
       </c>
       <c r="C699" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D699">
         <v>0</v>
@@ -22928,7 +22909,7 @@
         <v>110</v>
       </c>
       <c r="F699" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -22939,13 +22920,13 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A700">
-        <v>87400492</v>
+        <v>87400501</v>
       </c>
       <c r="B700" t="s">
         <v>888</v>
       </c>
       <c r="C700" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D700">
         <v>0</v>
@@ -22954,7 +22935,7 @@
         <v>110</v>
       </c>
       <c r="F700" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -22965,13 +22946,13 @@
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A701">
-        <v>87400493</v>
+        <v>87400502</v>
       </c>
       <c r="B701" t="s">
         <v>888</v>
       </c>
       <c r="C701" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D701">
         <v>0</v>
@@ -22980,7 +22961,7 @@
         <v>110</v>
       </c>
       <c r="F701" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -22991,13 +22972,13 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>87400494</v>
+        <v>87400503</v>
       </c>
       <c r="B702" t="s">
         <v>888</v>
       </c>
       <c r="C702" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D702">
         <v>0</v>
@@ -23006,7 +22987,7 @@
         <v>110</v>
       </c>
       <c r="F702" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G702">
         <v>0</v>
@@ -23017,13 +22998,13 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A703">
-        <v>87400495</v>
+        <v>87400504</v>
       </c>
       <c r="B703" t="s">
         <v>888</v>
       </c>
       <c r="C703" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D703">
         <v>0</v>
@@ -23032,7 +23013,7 @@
         <v>110</v>
       </c>
       <c r="F703" t="s">
-        <v>407</v>
+        <v>1351</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -23043,13 +23024,13 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A704">
-        <v>87400496</v>
+        <v>87400505</v>
       </c>
       <c r="B704" t="s">
         <v>888</v>
       </c>
       <c r="C704" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D704">
         <v>0</v>
@@ -23058,7 +23039,7 @@
         <v>110</v>
       </c>
       <c r="F704" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="G704">
         <v>0</v>
@@ -23069,13 +23050,13 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A705">
-        <v>87400497</v>
+        <v>87400506</v>
       </c>
       <c r="B705" t="s">
         <v>888</v>
       </c>
       <c r="C705" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D705">
         <v>0</v>
@@ -23084,7 +23065,7 @@
         <v>110</v>
       </c>
       <c r="F705" t="s">
-        <v>1353</v>
+        <v>482</v>
       </c>
       <c r="G705">
         <v>0</v>
@@ -23095,13 +23076,13 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A706">
-        <v>87400498</v>
+        <v>87400507</v>
       </c>
       <c r="B706" t="s">
         <v>888</v>
       </c>
       <c r="C706" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -23110,7 +23091,7 @@
         <v>110</v>
       </c>
       <c r="F706" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G706">
         <v>0</v>
@@ -23121,13 +23102,13 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A707">
-        <v>87400499</v>
+        <v>87400508</v>
       </c>
       <c r="B707" t="s">
         <v>888</v>
       </c>
       <c r="C707" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D707">
         <v>0</v>
@@ -23136,7 +23117,7 @@
         <v>110</v>
       </c>
       <c r="F707" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -23147,13 +23128,13 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A708">
-        <v>87400500</v>
+        <v>87400509</v>
       </c>
       <c r="B708" t="s">
         <v>888</v>
       </c>
       <c r="C708" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -23162,7 +23143,7 @@
         <v>110</v>
       </c>
       <c r="F708" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -23173,13 +23154,13 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A709">
-        <v>87400501</v>
+        <v>87400510</v>
       </c>
       <c r="B709" t="s">
         <v>888</v>
       </c>
       <c r="C709" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -23188,7 +23169,7 @@
         <v>110</v>
       </c>
       <c r="F709" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23199,13 +23180,13 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A710">
-        <v>87400502</v>
+        <v>87400511</v>
       </c>
       <c r="B710" t="s">
         <v>888</v>
       </c>
       <c r="C710" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D710">
         <v>0</v>
@@ -23214,7 +23195,7 @@
         <v>110</v>
       </c>
       <c r="F710" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -23225,13 +23206,13 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A711">
-        <v>87400503</v>
+        <v>87400512</v>
       </c>
       <c r="B711" t="s">
         <v>888</v>
       </c>
       <c r="C711" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D711">
         <v>0</v>
@@ -23240,7 +23221,7 @@
         <v>110</v>
       </c>
       <c r="F711" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -23251,13 +23232,13 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A712">
-        <v>87400504</v>
+        <v>87400513</v>
       </c>
       <c r="B712" t="s">
         <v>888</v>
       </c>
       <c r="C712" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -23266,7 +23247,7 @@
         <v>110</v>
       </c>
       <c r="F712" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G712">
         <v>0</v>
@@ -23277,13 +23258,13 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A713">
-        <v>87400505</v>
+        <v>87400514</v>
       </c>
       <c r="B713" t="s">
         <v>888</v>
       </c>
       <c r="C713" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D713">
         <v>0</v>
@@ -23292,7 +23273,7 @@
         <v>110</v>
       </c>
       <c r="F713" t="s">
-        <v>480</v>
+        <v>1359</v>
       </c>
       <c r="G713">
         <v>0</v>
@@ -23303,13 +23284,13 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A714">
-        <v>87400506</v>
+        <v>87400515</v>
       </c>
       <c r="B714" t="s">
         <v>888</v>
       </c>
       <c r="C714" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D714">
         <v>0</v>
@@ -23318,7 +23299,7 @@
         <v>110</v>
       </c>
       <c r="F714" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -23329,13 +23310,13 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A715">
-        <v>87400507</v>
+        <v>87400516</v>
       </c>
       <c r="B715" t="s">
         <v>888</v>
       </c>
       <c r="C715" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D715">
         <v>0</v>
@@ -23344,7 +23325,7 @@
         <v>110</v>
       </c>
       <c r="F715" t="s">
-        <v>1361</v>
+        <v>544</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -23355,13 +23336,13 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A716">
-        <v>87400508</v>
+        <v>87400517</v>
       </c>
       <c r="B716" t="s">
         <v>888</v>
       </c>
       <c r="C716" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D716">
         <v>0</v>
@@ -23370,7 +23351,7 @@
         <v>110</v>
       </c>
       <c r="F716" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -23381,13 +23362,13 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A717">
-        <v>87400509</v>
+        <v>87400518</v>
       </c>
       <c r="B717" t="s">
         <v>888</v>
       </c>
       <c r="C717" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D717">
         <v>0</v>
@@ -23396,7 +23377,7 @@
         <v>110</v>
       </c>
       <c r="F717" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -23407,13 +23388,13 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A718">
-        <v>87400510</v>
+        <v>87400519</v>
       </c>
       <c r="B718" t="s">
         <v>888</v>
       </c>
       <c r="C718" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D718">
         <v>0</v>
@@ -23422,7 +23403,7 @@
         <v>110</v>
       </c>
       <c r="F718" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -23433,13 +23414,13 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A719">
-        <v>87400511</v>
+        <v>87400520</v>
       </c>
       <c r="B719" t="s">
         <v>888</v>
       </c>
       <c r="C719" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D719">
         <v>0</v>
@@ -23448,7 +23429,7 @@
         <v>110</v>
       </c>
       <c r="F719" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -23459,13 +23440,13 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A720">
-        <v>87400512</v>
+        <v>87400521</v>
       </c>
       <c r="B720" t="s">
         <v>888</v>
       </c>
       <c r="C720" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D720">
         <v>0</v>
@@ -23474,7 +23455,7 @@
         <v>110</v>
       </c>
       <c r="F720" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -23485,13 +23466,13 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A721">
-        <v>87400513</v>
+        <v>87400522</v>
       </c>
       <c r="B721" t="s">
         <v>888</v>
       </c>
       <c r="C721" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D721">
         <v>0</v>
@@ -23500,7 +23481,7 @@
         <v>110</v>
       </c>
       <c r="F721" t="s">
-        <v>1367</v>
+        <v>603</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -23511,13 +23492,13 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A722">
-        <v>87400514</v>
+        <v>87400523</v>
       </c>
       <c r="B722" t="s">
         <v>888</v>
       </c>
       <c r="C722" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D722">
         <v>0</v>
@@ -23526,7 +23507,7 @@
         <v>110</v>
       </c>
       <c r="F722" t="s">
-        <v>1368</v>
+        <v>605</v>
       </c>
       <c r="G722">
         <v>0</v>
@@ -23537,13 +23518,13 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A723">
-        <v>87400515</v>
+        <v>87400524</v>
       </c>
       <c r="B723" t="s">
         <v>888</v>
       </c>
       <c r="C723" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D723">
         <v>0</v>
@@ -23552,7 +23533,7 @@
         <v>110</v>
       </c>
       <c r="F723" t="s">
-        <v>542</v>
+        <v>1365</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -23563,13 +23544,13 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A724">
-        <v>87400516</v>
+        <v>87400525</v>
       </c>
       <c r="B724" t="s">
         <v>888</v>
       </c>
       <c r="C724" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D724">
         <v>0</v>
@@ -23578,7 +23559,7 @@
         <v>110</v>
       </c>
       <c r="F724" t="s">
-        <v>544</v>
+        <v>1366</v>
       </c>
       <c r="G724">
         <v>0</v>
@@ -23589,13 +23570,13 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A725">
-        <v>87400517</v>
+        <v>87400526</v>
       </c>
       <c r="B725" t="s">
         <v>888</v>
       </c>
       <c r="C725" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D725">
         <v>0</v>
@@ -23604,7 +23585,7 @@
         <v>110</v>
       </c>
       <c r="F725" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -23615,13 +23596,13 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A726">
-        <v>87400518</v>
+        <v>87400527</v>
       </c>
       <c r="B726" t="s">
         <v>888</v>
       </c>
       <c r="C726" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D726">
         <v>0</v>
@@ -23630,7 +23611,7 @@
         <v>110</v>
       </c>
       <c r="F726" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G726">
         <v>0</v>
@@ -23641,13 +23622,13 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A727">
-        <v>87400519</v>
+        <v>87400528</v>
       </c>
       <c r="B727" t="s">
         <v>888</v>
       </c>
       <c r="C727" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D727">
         <v>0</v>
@@ -23656,7 +23637,7 @@
         <v>110</v>
       </c>
       <c r="F727" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G727">
         <v>0</v>
@@ -23667,13 +23648,13 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A728">
-        <v>87400520</v>
+        <v>87400529</v>
       </c>
       <c r="B728" t="s">
         <v>888</v>
       </c>
       <c r="C728" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D728">
         <v>0</v>
@@ -23682,7 +23663,7 @@
         <v>110</v>
       </c>
       <c r="F728" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G728">
         <v>0</v>
@@ -23693,13 +23674,13 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A729">
-        <v>87400521</v>
+        <v>87400530</v>
       </c>
       <c r="B729" t="s">
         <v>888</v>
       </c>
       <c r="C729" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D729">
         <v>0</v>
@@ -23708,7 +23689,7 @@
         <v>110</v>
       </c>
       <c r="F729" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -23719,13 +23700,13 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A730">
-        <v>87400522</v>
+        <v>87400531</v>
       </c>
       <c r="B730" t="s">
         <v>888</v>
       </c>
       <c r="C730" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D730">
         <v>0</v>
@@ -23734,7 +23715,7 @@
         <v>110</v>
       </c>
       <c r="F730" t="s">
-        <v>603</v>
+        <v>1372</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -23745,13 +23726,13 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A731">
-        <v>87400523</v>
+        <v>87400532</v>
       </c>
       <c r="B731" t="s">
         <v>888</v>
       </c>
       <c r="C731" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D731">
         <v>0</v>
@@ -23760,7 +23741,7 @@
         <v>110</v>
       </c>
       <c r="F731" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -23771,13 +23752,13 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A732">
-        <v>87400524</v>
+        <v>87400533</v>
       </c>
       <c r="B732" t="s">
         <v>888</v>
       </c>
       <c r="C732" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D732">
         <v>0</v>
@@ -23786,7 +23767,7 @@
         <v>110</v>
       </c>
       <c r="F732" t="s">
-        <v>1374</v>
+        <v>660</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -23797,13 +23778,13 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A733">
-        <v>87400525</v>
+        <v>87400534</v>
       </c>
       <c r="B733" t="s">
         <v>888</v>
       </c>
       <c r="C733" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D733">
         <v>0</v>
@@ -23812,7 +23793,7 @@
         <v>110</v>
       </c>
       <c r="F733" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G733">
         <v>0</v>
@@ -23823,13 +23804,13 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A734">
-        <v>87400526</v>
+        <v>87400535</v>
       </c>
       <c r="B734" t="s">
         <v>888</v>
       </c>
       <c r="C734" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D734">
         <v>0</v>
@@ -23838,7 +23819,7 @@
         <v>110</v>
       </c>
       <c r="F734" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G734">
         <v>0</v>
@@ -23849,13 +23830,13 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A735">
-        <v>87400527</v>
+        <v>87400536</v>
       </c>
       <c r="B735" t="s">
         <v>888</v>
       </c>
       <c r="C735" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D735">
         <v>0</v>
@@ -23864,7 +23845,7 @@
         <v>110</v>
       </c>
       <c r="F735" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -23875,13 +23856,13 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A736">
-        <v>87400528</v>
+        <v>87400537</v>
       </c>
       <c r="B736" t="s">
         <v>888</v>
       </c>
       <c r="C736" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D736">
         <v>0</v>
@@ -23890,7 +23871,7 @@
         <v>110</v>
       </c>
       <c r="F736" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G736">
         <v>0</v>
@@ -23901,13 +23882,13 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A737">
-        <v>87400529</v>
+        <v>87400538</v>
       </c>
       <c r="B737" t="s">
         <v>888</v>
       </c>
       <c r="C737" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D737">
         <v>0</v>
@@ -23916,7 +23897,7 @@
         <v>110</v>
       </c>
       <c r="F737" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -23927,13 +23908,13 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A738">
-        <v>87400530</v>
+        <v>87400539</v>
       </c>
       <c r="B738" t="s">
         <v>888</v>
       </c>
       <c r="C738" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D738">
         <v>0</v>
@@ -23942,7 +23923,7 @@
         <v>110</v>
       </c>
       <c r="F738" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G738">
         <v>0</v>
@@ -23953,13 +23934,13 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A739">
-        <v>87400531</v>
+        <v>87400540</v>
       </c>
       <c r="B739" t="s">
         <v>888</v>
       </c>
       <c r="C739" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D739">
         <v>0</v>
@@ -23968,7 +23949,7 @@
         <v>110</v>
       </c>
       <c r="F739" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -23979,13 +23960,13 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A740">
-        <v>87400532</v>
+        <v>87400541</v>
       </c>
       <c r="B740" t="s">
         <v>888</v>
       </c>
       <c r="C740" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D740">
         <v>0</v>
@@ -23994,7 +23975,7 @@
         <v>110</v>
       </c>
       <c r="F740" t="s">
-        <v>658</v>
+        <v>1380</v>
       </c>
       <c r="G740">
         <v>0</v>
@@ -24005,13 +23986,13 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A741">
-        <v>87400533</v>
+        <v>87400542</v>
       </c>
       <c r="B741" t="s">
         <v>888</v>
       </c>
       <c r="C741" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D741">
         <v>0</v>
@@ -24020,7 +24001,7 @@
         <v>110</v>
       </c>
       <c r="F741" t="s">
-        <v>660</v>
+        <v>1381</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -24031,13 +24012,13 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A742">
-        <v>87400534</v>
+        <v>87400543</v>
       </c>
       <c r="B742" t="s">
         <v>888</v>
       </c>
       <c r="C742" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D742">
         <v>0</v>
@@ -24057,13 +24038,13 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A743">
-        <v>87400535</v>
+        <v>87400544</v>
       </c>
       <c r="B743" t="s">
         <v>888</v>
       </c>
       <c r="C743" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D743">
         <v>0</v>
@@ -24083,13 +24064,13 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A744">
-        <v>87400536</v>
+        <v>87400545</v>
       </c>
       <c r="B744" t="s">
         <v>888</v>
       </c>
       <c r="C744" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D744">
         <v>0</v>
@@ -24109,13 +24090,13 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A745">
-        <v>87400537</v>
+        <v>87400546</v>
       </c>
       <c r="B745" t="s">
         <v>888</v>
       </c>
       <c r="C745" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D745">
         <v>0</v>
@@ -24135,13 +24116,13 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A746">
-        <v>87400538</v>
+        <v>87400547</v>
       </c>
       <c r="B746" t="s">
         <v>888</v>
       </c>
       <c r="C746" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D746">
         <v>0</v>
@@ -24161,13 +24142,13 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A747">
-        <v>87400539</v>
+        <v>87400548</v>
       </c>
       <c r="B747" t="s">
         <v>888</v>
       </c>
       <c r="C747" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D747">
         <v>0</v>
@@ -24187,13 +24168,13 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A748">
-        <v>87400540</v>
+        <v>87400549</v>
       </c>
       <c r="B748" t="s">
         <v>888</v>
       </c>
       <c r="C748" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D748">
         <v>0</v>
@@ -24213,13 +24194,13 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A749">
-        <v>87400541</v>
+        <v>87400550</v>
       </c>
       <c r="B749" t="s">
         <v>888</v>
       </c>
       <c r="C749" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D749">
         <v>0</v>
@@ -24239,13 +24220,13 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A750">
-        <v>87400542</v>
+        <v>87400551</v>
       </c>
       <c r="B750" t="s">
         <v>888</v>
       </c>
       <c r="C750" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D750">
         <v>0</v>
@@ -24254,7 +24235,7 @@
         <v>110</v>
       </c>
       <c r="F750" t="s">
-        <v>1390</v>
+        <v>50</v>
       </c>
       <c r="G750">
         <v>0</v>
@@ -24265,13 +24246,13 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A751">
-        <v>87400543</v>
+        <v>87400552</v>
       </c>
       <c r="B751" t="s">
         <v>888</v>
       </c>
       <c r="C751" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D751">
         <v>0</v>
@@ -24280,7 +24261,7 @@
         <v>110</v>
       </c>
       <c r="F751" t="s">
-        <v>1391</v>
+        <v>52</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -24291,13 +24272,13 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A752">
-        <v>87400544</v>
+        <v>87400553</v>
       </c>
       <c r="B752" t="s">
         <v>888</v>
       </c>
       <c r="C752" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D752">
         <v>0</v>
@@ -24306,7 +24287,7 @@
         <v>110</v>
       </c>
       <c r="F752" t="s">
-        <v>1392</v>
+        <v>67</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -24317,13 +24298,13 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A753">
-        <v>87400545</v>
+        <v>87400554</v>
       </c>
       <c r="B753" t="s">
         <v>888</v>
       </c>
       <c r="C753" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D753">
         <v>0</v>
@@ -24332,7 +24313,7 @@
         <v>110</v>
       </c>
       <c r="F753" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G753">
         <v>0</v>
@@ -24343,13 +24324,13 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A754">
-        <v>87400546</v>
+        <v>87400555</v>
       </c>
       <c r="B754" t="s">
         <v>888</v>
       </c>
       <c r="C754" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D754">
         <v>0</v>
@@ -24358,7 +24339,7 @@
         <v>110</v>
       </c>
       <c r="F754" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G754">
         <v>0</v>
@@ -24369,13 +24350,13 @@
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A755">
-        <v>87400547</v>
+        <v>87400556</v>
       </c>
       <c r="B755" t="s">
         <v>888</v>
       </c>
       <c r="C755" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D755">
         <v>0</v>
@@ -24384,7 +24365,7 @@
         <v>110</v>
       </c>
       <c r="F755" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -24395,13 +24376,13 @@
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A756">
-        <v>87400548</v>
+        <v>87400557</v>
       </c>
       <c r="B756" t="s">
         <v>888</v>
       </c>
       <c r="C756" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D756">
         <v>0</v>
@@ -24410,7 +24391,7 @@
         <v>110</v>
       </c>
       <c r="F756" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G756">
         <v>0</v>
@@ -24421,13 +24402,13 @@
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A757">
-        <v>87400549</v>
+        <v>87400558</v>
       </c>
       <c r="B757" t="s">
         <v>888</v>
       </c>
       <c r="C757" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D757">
         <v>0</v>
@@ -24436,7 +24417,7 @@
         <v>110</v>
       </c>
       <c r="F757" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -24447,13 +24428,13 @@
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A758">
-        <v>87400550</v>
+        <v>87400559</v>
       </c>
       <c r="B758" t="s">
         <v>888</v>
       </c>
       <c r="C758" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D758">
         <v>0</v>
@@ -24462,7 +24443,7 @@
         <v>110</v>
       </c>
       <c r="F758" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G758">
         <v>0</v>
@@ -24473,13 +24454,13 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A759">
-        <v>87400551</v>
+        <v>87400560</v>
       </c>
       <c r="B759" t="s">
         <v>888</v>
       </c>
       <c r="C759" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D759">
         <v>0</v>
@@ -24488,7 +24469,7 @@
         <v>110</v>
       </c>
       <c r="F759" t="s">
-        <v>50</v>
+        <v>1396</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -24499,13 +24480,13 @@
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A760">
-        <v>87400552</v>
+        <v>87400561</v>
       </c>
       <c r="B760" t="s">
         <v>888</v>
       </c>
       <c r="C760" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D760">
         <v>0</v>
@@ -24514,7 +24495,7 @@
         <v>110</v>
       </c>
       <c r="F760" t="s">
-        <v>52</v>
+        <v>1397</v>
       </c>
       <c r="G760">
         <v>0</v>
@@ -24525,13 +24506,13 @@
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A761">
-        <v>87400553</v>
+        <v>87400562</v>
       </c>
       <c r="B761" t="s">
         <v>888</v>
       </c>
       <c r="C761" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D761">
         <v>0</v>
@@ -24540,7 +24521,7 @@
         <v>110</v>
       </c>
       <c r="F761" t="s">
-        <v>67</v>
+        <v>1398</v>
       </c>
       <c r="G761">
         <v>0</v>
@@ -24551,13 +24532,13 @@
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A762">
-        <v>87400554</v>
+        <v>87400563</v>
       </c>
       <c r="B762" t="s">
         <v>888</v>
       </c>
       <c r="C762" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D762">
         <v>0</v>
@@ -24577,13 +24558,13 @@
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A763">
-        <v>87400555</v>
+        <v>87400564</v>
       </c>
       <c r="B763" t="s">
         <v>888</v>
       </c>
       <c r="C763" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D763">
         <v>0</v>
@@ -24603,13 +24584,13 @@
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A764">
-        <v>87400556</v>
+        <v>87400565</v>
       </c>
       <c r="B764" t="s">
         <v>888</v>
       </c>
       <c r="C764" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D764">
         <v>0</v>
@@ -24618,7 +24599,7 @@
         <v>110</v>
       </c>
       <c r="F764" t="s">
-        <v>1401</v>
+        <v>78</v>
       </c>
       <c r="G764">
         <v>0</v>
@@ -24629,13 +24610,13 @@
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A765">
-        <v>87400557</v>
+        <v>87400566</v>
       </c>
       <c r="B765" t="s">
         <v>888</v>
       </c>
       <c r="C765" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D765">
         <v>0</v>
@@ -24644,7 +24625,7 @@
         <v>110</v>
       </c>
       <c r="F765" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -24655,13 +24636,13 @@
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>87400558</v>
+        <v>87400567</v>
       </c>
       <c r="B766" t="s">
         <v>888</v>
       </c>
       <c r="C766" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D766">
         <v>0</v>
@@ -24670,7 +24651,7 @@
         <v>110</v>
       </c>
       <c r="F766" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -24681,13 +24662,13 @@
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A767">
-        <v>87400559</v>
+        <v>87400568</v>
       </c>
       <c r="B767" t="s">
         <v>888</v>
       </c>
       <c r="C767" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="D767">
         <v>0</v>
@@ -24696,7 +24677,7 @@
         <v>110</v>
       </c>
       <c r="F767" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G767">
         <v>0</v>
@@ -24707,13 +24688,13 @@
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400560</v>
+        <v>87400569</v>
       </c>
       <c r="B768" t="s">
-        <v>888</v>
+        <v>1468</v>
       </c>
       <c r="C768" t="s">
-        <v>1432</v>
+        <v>1469</v>
       </c>
       <c r="D768">
         <v>0</v>
@@ -24722,220 +24703,12 @@
         <v>110</v>
       </c>
       <c r="F768" t="s">
-        <v>1405</v>
+        <v>1470</v>
       </c>
       <c r="G768">
         <v>0</v>
       </c>
       <c r="H768">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A769">
-        <v>87400561</v>
-      </c>
-      <c r="B769" t="s">
-        <v>888</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D769">
-        <v>0</v>
-      </c>
-      <c r="E769" t="s">
-        <v>110</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G769">
-        <v>0</v>
-      </c>
-      <c r="H769">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A770">
-        <v>87400562</v>
-      </c>
-      <c r="B770" t="s">
-        <v>888</v>
-      </c>
-      <c r="C770" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D770">
-        <v>0</v>
-      </c>
-      <c r="E770" t="s">
-        <v>110</v>
-      </c>
-      <c r="F770" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G770">
-        <v>0</v>
-      </c>
-      <c r="H770">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A771">
-        <v>87400563</v>
-      </c>
-      <c r="B771" t="s">
-        <v>888</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D771">
-        <v>0</v>
-      </c>
-      <c r="E771" t="s">
-        <v>110</v>
-      </c>
-      <c r="F771" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G771">
-        <v>0</v>
-      </c>
-      <c r="H771">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A772">
-        <v>87400564</v>
-      </c>
-      <c r="B772" t="s">
-        <v>888</v>
-      </c>
-      <c r="C772" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D772">
-        <v>0</v>
-      </c>
-      <c r="E772" t="s">
-        <v>110</v>
-      </c>
-      <c r="F772" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G772">
-        <v>0</v>
-      </c>
-      <c r="H772">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A773">
-        <v>87400565</v>
-      </c>
-      <c r="B773" t="s">
-        <v>888</v>
-      </c>
-      <c r="C773" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D773">
-        <v>0</v>
-      </c>
-      <c r="E773" t="s">
-        <v>110</v>
-      </c>
-      <c r="F773" t="s">
-        <v>78</v>
-      </c>
-      <c r="G773">
-        <v>0</v>
-      </c>
-      <c r="H773">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A774">
-        <v>87400566</v>
-      </c>
-      <c r="B774" t="s">
-        <v>888</v>
-      </c>
-      <c r="C774" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D774">
-        <v>0</v>
-      </c>
-      <c r="E774" t="s">
-        <v>110</v>
-      </c>
-      <c r="F774" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G774">
-        <v>0</v>
-      </c>
-      <c r="H774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A775">
-        <v>87400567</v>
-      </c>
-      <c r="B775" t="s">
-        <v>888</v>
-      </c>
-      <c r="C775" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D775">
-        <v>0</v>
-      </c>
-      <c r="E775" t="s">
-        <v>110</v>
-      </c>
-      <c r="F775" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G775">
-        <v>0</v>
-      </c>
-      <c r="H775">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A776">
-        <v>87400568</v>
-      </c>
-      <c r="B776" t="s">
-        <v>888</v>
-      </c>
-      <c r="C776" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D776">
-        <v>0</v>
-      </c>
-      <c r="E776" t="s">
-        <v>110</v>
-      </c>
-      <c r="F776" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G776">
-        <v>0</v>
-      </c>
-      <c r="H776">
         <v>0</v>
       </c>
     </row>
@@ -28831,7 +28604,7 @@
         <v>211</v>
       </c>
       <c r="G149" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="H149">
         <v>1</v>

--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123E4CCC-EF1C-49BF-B646-F5773403C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBDD617-7D3C-4396-A16A-5777A44372A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1472">
   <si>
     <t>#ID</t>
   </si>
@@ -4468,7 +4468,12 @@
     <t>TalentIcon18</t>
   </si>
   <si>
-    <t>(2,871487,0)</t>
+    <t>(2,800002,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,800003,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4832,11 +4837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H768"/>
+  <dimension ref="A1:H769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M768" sqref="M768"/>
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K762" sqref="K762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24688,7 +24693,7 @@
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400569</v>
+        <v>87400570</v>
       </c>
       <c r="B768" t="s">
         <v>1468</v>
@@ -24709,6 +24714,32 @@
         <v>0</v>
       </c>
       <c r="H768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A769">
+        <v>87400571</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769" t="s">
+        <v>110</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
         <v>0</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBDD617-7D3C-4396-A16A-5777A44372A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455820B-8712-479B-8EF1-6E50E8C7888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="1473">
   <si>
     <t>#ID</t>
   </si>
@@ -4473,6 +4473,10 @@
   </si>
   <si>
     <t>(2,800003,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,800004,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4837,11 +4841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H769"/>
+  <dimension ref="A1:H770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K762" sqref="K762"/>
+      <selection pane="bottomLeft" activeCell="M763" sqref="M763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24740,6 +24744,32 @@
         <v>0</v>
       </c>
       <c r="H769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A770">
+        <v>87400572</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770" t="s">
+        <v>110</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
         <v>0</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/技能.xlsx
+++ b/Excel文件/xiakeqian/技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455820B-8712-479B-8EF1-6E50E8C7888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DD237-6BB0-4789-9299-9FE97AB4487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4844,8 +4844,8 @@
   <dimension ref="A1:H770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M763" sqref="M763"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R182" sqref="R182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
